--- a/analisis/data/bolivia/TG YPFB.xlsx
+++ b/analisis/data/bolivia/TG YPFB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="580">
   <si>
     <t>Utilidad Año corriente</t>
   </si>
@@ -1919,6 +1919,18 @@
   </si>
   <si>
     <t>% (M u$s c/tcp)</t>
+  </si>
+  <si>
+    <t>PBI Boliviano</t>
+  </si>
+  <si>
+    <t>M$. INE</t>
+  </si>
+  <si>
+    <t>Renta /PBI</t>
+  </si>
+  <si>
+    <t>% a partir de M$</t>
   </si>
 </sst>
 </file>
@@ -28801,7 +28813,7 @@
   <dimension ref="B3:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="I4:J12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42671,7 +42683,7 @@
   <dimension ref="A4:X20"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="Q11" sqref="M9:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42951,7 +42963,7 @@
         <v>0.18873876899998324</v>
       </c>
       <c r="X8" s="215">
-        <f t="shared" si="10"/>
+        <f>U8*W8+U8</f>
         <v>1.3078600770868878</v>
       </c>
     </row>
@@ -43324,13 +43336,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ43"/>
+  <dimension ref="A1:BD43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="AJ13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="AP15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AL29" sqref="AL29"/>
+      <selection pane="bottomRight" activeCell="AW21" sqref="AW21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43356,15 +43368,15 @@
     <col min="45" max="45" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:56" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="225" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:56" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="225"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B3" s="223" t="s">
         <v>479</v>
       </c>
@@ -43426,15 +43438,21 @@
         <v>501</v>
       </c>
       <c r="AU3" s="223" t="s">
-        <v>503</v>
-      </c>
-      <c r="AV3" s="223"/>
+        <v>576</v>
+      </c>
+      <c r="AW3" s="223" t="s">
+        <v>578</v>
+      </c>
       <c r="AY3" s="223" t="s">
         <v>503</v>
       </c>
       <c r="AZ3" s="223"/>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BC3" s="223" t="s">
+        <v>503</v>
+      </c>
+      <c r="BD3" s="223"/>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B4" s="222" t="s">
         <v>480</v>
       </c>
@@ -43517,10 +43535,10 @@
         <v>480</v>
       </c>
       <c r="AU4" s="222" t="s">
-        <v>469</v>
-      </c>
-      <c r="AV4" s="222" t="s">
-        <v>470</v>
+        <v>480</v>
+      </c>
+      <c r="AW4" s="222" t="s">
+        <v>480</v>
       </c>
       <c r="AY4" s="222" t="s">
         <v>469</v>
@@ -43528,8 +43546,14 @@
       <c r="AZ4" s="222" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="5" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC4" s="222" t="s">
+        <v>469</v>
+      </c>
+      <c r="BD4" s="222" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>487</v>
       </c>
@@ -43606,19 +43630,25 @@
         <v>572</v>
       </c>
       <c r="AU5" t="s">
+        <v>577</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>579</v>
+      </c>
+      <c r="AY5" t="s">
         <v>573</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AZ5" t="s">
         <v>573</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="BC5" t="s">
         <v>575</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BD5" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1992</v>
       </c>
@@ -43647,8 +43677,11 @@
         <v>244</v>
       </c>
       <c r="R6" s="219"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU6" s="234">
+        <v>22014.006000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1993</v>
       </c>
@@ -43677,8 +43710,11 @@
         <v>244</v>
       </c>
       <c r="R7" s="219"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU7" s="234">
+        <v>24458.969000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1994</v>
       </c>
@@ -43707,8 +43743,11 @@
         <v>244</v>
       </c>
       <c r="R8" s="219"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU8" s="234">
+        <v>27636.342000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1995</v>
       </c>
@@ -43737,8 +43776,11 @@
         <v>244</v>
       </c>
       <c r="R9" s="219"/>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU9" s="234">
+        <v>32235.073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1996</v>
       </c>
@@ -43767,8 +43809,11 @@
         <v>244</v>
       </c>
       <c r="R10" s="219"/>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU10" s="234">
+        <v>37536.646999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1997</v>
       </c>
@@ -43797,8 +43842,11 @@
         <v>244</v>
       </c>
       <c r="R11" s="219"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU11" s="234">
+        <v>41643.866000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1998</v>
       </c>
@@ -43827,8 +43875,11 @@
         <v>244</v>
       </c>
       <c r="R12" s="219"/>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU12" s="234">
+        <v>46822.326000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1999</v>
       </c>
@@ -43862,8 +43913,11 @@
         <v>21110892.746091776</v>
       </c>
       <c r="R13" s="219"/>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU13" s="234">
+        <v>48156.175000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2000</v>
       </c>
@@ -43904,8 +43958,11 @@
       <c r="AP14" s="234"/>
       <c r="AQ14" s="234"/>
       <c r="AR14" s="234"/>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU14" s="234">
+        <v>51928.491999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2001</v>
       </c>
@@ -43946,8 +44003,11 @@
       <c r="AP15" s="234"/>
       <c r="AQ15" s="234"/>
       <c r="AR15" s="234"/>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU15" s="234">
+        <v>53790.326999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -43988,8 +44048,11 @@
       <c r="AP16" s="234"/>
       <c r="AQ16" s="234"/>
       <c r="AR16" s="234"/>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU16" s="234">
+        <v>56682.328000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2003</v>
       </c>
@@ -44051,8 +44114,11 @@
       <c r="AP17" s="234"/>
       <c r="AQ17" s="234"/>
       <c r="AR17" s="234"/>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU17" s="234">
+        <v>61904.449000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2004</v>
       </c>
@@ -44087,7 +44153,7 @@
         <v>443743202.24628633</v>
       </c>
       <c r="T18" s="231">
-        <f t="shared" ref="T18:T34" si="3">P18/R18</f>
+        <f t="shared" ref="T18:T33" si="3">P18/R18</f>
         <v>9.4829770159679957E-2</v>
       </c>
       <c r="U18" s="231">
@@ -44114,8 +44180,11 @@
       <c r="AP18" s="234"/>
       <c r="AQ18" s="234"/>
       <c r="AR18" s="234"/>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU18" s="234">
+        <v>69626.112999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2005</v>
       </c>
@@ -44180,8 +44249,11 @@
       <c r="AP19" s="234"/>
       <c r="AQ19" s="234"/>
       <c r="AR19" s="234"/>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU19" s="234">
+        <v>77023.816999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2006</v>
       </c>
@@ -44248,10 +44320,13 @@
       <c r="AP20" s="234"/>
       <c r="AQ20" s="234"/>
       <c r="AR20" s="234"/>
-      <c r="AY20" s="199"/>
-      <c r="AZ20" s="199"/>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU20" s="234">
+        <v>91747.794999999998</v>
+      </c>
+      <c r="BC20" s="199"/>
+      <c r="BD20" s="199"/>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2007</v>
       </c>
@@ -44359,29 +44434,38 @@
       <c r="AR21" s="234">
         <v>23113.022583151815</v>
       </c>
-      <c r="AS21" s="47">
+      <c r="AS21" s="234">
         <f>AR21/AJ21</f>
         <v>1653.4730062945275</v>
       </c>
       <c r="AT21" s="47"/>
-      <c r="AU21" s="199">
-        <f t="shared" ref="AU21:AU28" si="7">AL21/AR21</f>
+      <c r="AU21" s="234">
+        <v>103009.182</v>
+      </c>
+      <c r="AV21" s="47"/>
+      <c r="AW21" s="199">
+        <f>AR21/AU21</f>
+        <v>0.22437827516339093</v>
+      </c>
+      <c r="AX21" s="47"/>
+      <c r="AY21" s="2">
+        <f t="shared" ref="AY21:AY28" si="7">AL21/AR21</f>
         <v>9.1681165911268556E-2</v>
       </c>
-      <c r="AV21" s="199">
-        <f t="shared" ref="AV21:AV28" si="8">AM21/AR21</f>
+      <c r="AZ21" s="2">
+        <f t="shared" ref="AZ21:AZ28" si="8">AM21/AR21</f>
         <v>0.45080237933082784</v>
       </c>
-      <c r="AY21" s="2">
+      <c r="BC21" s="2">
         <f>AO21/AS21</f>
         <v>9.1681165911268556E-2</v>
       </c>
-      <c r="AZ21" s="2">
+      <c r="BD21" s="2">
         <f>AP21/AS21</f>
         <v>0.45080237933082784</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2008</v>
       </c>
@@ -44489,29 +44573,38 @@
       <c r="AR22" s="234">
         <v>45455.446366080279</v>
       </c>
-      <c r="AS22" s="47">
+      <c r="AS22" s="234">
         <f t="shared" ref="AS22:AS28" si="20">AR22/AJ22</f>
         <v>3062.6285975215292</v>
       </c>
       <c r="AT22" s="47"/>
-      <c r="AU22" s="199">
+      <c r="AU22" s="234">
+        <v>120693.764</v>
+      </c>
+      <c r="AV22" s="47"/>
+      <c r="AW22" s="199">
+        <f t="shared" ref="AW22:AW31" si="21">AR22/AU22</f>
+        <v>0.37661801951988405</v>
+      </c>
+      <c r="AX22" s="47"/>
+      <c r="AY22" s="2">
         <f t="shared" si="7"/>
         <v>4.4011784005611392E-2</v>
       </c>
-      <c r="AV22" s="199">
+      <c r="AZ22" s="2">
         <f t="shared" si="8"/>
         <v>0.39644236337493238</v>
       </c>
-      <c r="AY22" s="2">
-        <f t="shared" ref="AY22:AY27" si="21">AO22/AS22</f>
+      <c r="BC22" s="2">
+        <f t="shared" ref="BC22:BC27" si="22">AO22/AS22</f>
         <v>4.4011784005611385E-2</v>
       </c>
-      <c r="AZ22" s="2">
-        <f t="shared" ref="AZ22:AZ27" si="22">AP22/AS22</f>
+      <c r="BD22" s="2">
+        <f t="shared" ref="BD22:BD27" si="23">AP22/AS22</f>
         <v>0.39644236337493233</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2009</v>
       </c>
@@ -44619,29 +44712,38 @@
       <c r="AR23" s="234">
         <v>27574.239217618146</v>
       </c>
-      <c r="AS23" s="47">
+      <c r="AS23" s="234">
         <f t="shared" si="20"/>
         <v>1870.4917981845581</v>
       </c>
       <c r="AT23" s="47"/>
-      <c r="AU23" s="199">
+      <c r="AU23" s="234">
+        <v>121726.745</v>
+      </c>
+      <c r="AV23" s="47"/>
+      <c r="AW23" s="199">
+        <f t="shared" si="21"/>
+        <v>0.22652572544857047</v>
+      </c>
+      <c r="AX23" s="47"/>
+      <c r="AY23" s="2">
         <f t="shared" si="7"/>
         <v>7.9413244896194099E-2</v>
       </c>
-      <c r="AV23" s="199">
+      <c r="AZ23" s="2">
         <f t="shared" si="8"/>
         <v>0.32216400248600396</v>
       </c>
-      <c r="AY23" s="2">
-        <f t="shared" si="21"/>
+      <c r="BC23" s="2">
+        <f t="shared" si="22"/>
         <v>7.9413244896194099E-2</v>
       </c>
-      <c r="AZ23" s="2">
-        <f t="shared" si="22"/>
+      <c r="BD23" s="2">
+        <f t="shared" si="23"/>
         <v>0.32216400248600396</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -44749,29 +44851,38 @@
       <c r="AR24" s="234">
         <v>42303.301091073372</v>
       </c>
-      <c r="AS24" s="47">
+      <c r="AS24" s="234">
         <f t="shared" si="20"/>
         <v>2666.7578567025298</v>
       </c>
       <c r="AT24" s="47"/>
-      <c r="AU24" s="199">
+      <c r="AU24" s="234">
+        <v>137875.568</v>
+      </c>
+      <c r="AV24" s="47"/>
+      <c r="AW24" s="199">
+        <f t="shared" si="21"/>
+        <v>0.30682231598185239</v>
+      </c>
+      <c r="AX24" s="47"/>
+      <c r="AY24" s="2">
         <f t="shared" si="7"/>
         <v>7.1501627931479447E-2</v>
       </c>
-      <c r="AV24" s="199">
+      <c r="AZ24" s="2">
         <f t="shared" si="8"/>
         <v>0.32188424074690386</v>
       </c>
-      <c r="AY24" s="2">
-        <f t="shared" si="21"/>
+      <c r="BC24" s="2">
+        <f t="shared" si="22"/>
         <v>7.1501627931479447E-2</v>
       </c>
-      <c r="AZ24" s="2">
-        <f t="shared" si="22"/>
+      <c r="BD24" s="2">
+        <f t="shared" si="23"/>
         <v>0.32188424074690386</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2011</v>
       </c>
@@ -44879,29 +44990,38 @@
       <c r="AR25" s="234">
         <v>58763.963507078362</v>
       </c>
-      <c r="AS25" s="47">
+      <c r="AS25" s="234">
         <f t="shared" si="20"/>
         <v>3503.8999400950124</v>
       </c>
       <c r="AT25" s="47"/>
-      <c r="AU25" s="199">
+      <c r="AU25" s="234">
+        <v>166231.56299999999</v>
+      </c>
+      <c r="AV25" s="47"/>
+      <c r="AW25" s="199">
+        <f t="shared" si="21"/>
+        <v>0.35350665328869202</v>
+      </c>
+      <c r="AX25" s="47"/>
+      <c r="AY25" s="2">
         <f t="shared" si="7"/>
         <v>0.103120278841674</v>
       </c>
-      <c r="AV25" s="199">
+      <c r="AZ25" s="2">
         <f t="shared" si="8"/>
         <v>0.29448355961009659</v>
       </c>
-      <c r="AY25" s="2">
-        <f t="shared" si="21"/>
+      <c r="BC25" s="2">
+        <f t="shared" si="22"/>
         <v>0.10312027884167399</v>
       </c>
-      <c r="AZ25" s="2">
-        <f t="shared" si="22"/>
+      <c r="BD25" s="2">
+        <f t="shared" si="23"/>
         <v>0.29448355961009659</v>
       </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2012</v>
       </c>
@@ -45009,29 +45129,38 @@
       <c r="AR26" s="234">
         <v>69755.151680871611</v>
       </c>
-      <c r="AS26" s="47">
+      <c r="AS26" s="234">
         <f t="shared" si="20"/>
         <v>4105.3365753062963</v>
       </c>
       <c r="AT26" s="47"/>
-      <c r="AU26" s="199">
+      <c r="AU26" s="234">
+        <v>187153.878</v>
+      </c>
+      <c r="AV26" s="47"/>
+      <c r="AW26" s="199">
+        <f t="shared" si="21"/>
+        <v>0.37271550248545537</v>
+      </c>
+      <c r="AX26" s="47"/>
+      <c r="AY26" s="2">
         <f t="shared" si="7"/>
         <v>0.17117614906952228</v>
       </c>
-      <c r="AV26" s="199">
+      <c r="AZ26" s="2">
         <f t="shared" si="8"/>
         <v>0.31322600315128979</v>
       </c>
-      <c r="AY26" s="2">
-        <f t="shared" si="21"/>
+      <c r="BC26" s="2">
+        <f>AO26/AS26</f>
         <v>0.17117614906952228</v>
       </c>
-      <c r="AZ26" s="2">
-        <f t="shared" si="22"/>
+      <c r="BD26" s="2">
+        <f t="shared" si="23"/>
         <v>0.31322600315128979</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2013</v>
       </c>
@@ -45139,29 +45268,38 @@
       <c r="AR27" s="234">
         <v>82631.452647713624</v>
       </c>
-      <c r="AS27" s="47">
+      <c r="AS27" s="234">
         <f t="shared" si="20"/>
         <v>4711.939446322358</v>
       </c>
       <c r="AT27" s="47"/>
-      <c r="AU27" s="199">
+      <c r="AU27" s="234">
+        <v>211856.03200000001</v>
+      </c>
+      <c r="AV27" s="47"/>
+      <c r="AW27" s="199">
+        <f t="shared" si="21"/>
+        <v>0.3900358742096785</v>
+      </c>
+      <c r="AX27" s="47"/>
+      <c r="AY27" s="2">
         <f t="shared" si="7"/>
         <v>0.16770449695898357</v>
       </c>
-      <c r="AV27" s="199">
+      <c r="AZ27" s="2">
         <f t="shared" si="8"/>
         <v>0.29773245305118473</v>
       </c>
-      <c r="AY27" s="2">
-        <f t="shared" si="21"/>
+      <c r="BC27" s="2">
+        <f t="shared" si="22"/>
         <v>0.16770449695898357</v>
       </c>
-      <c r="AZ27" s="2">
-        <f t="shared" si="22"/>
+      <c r="BD27" s="2">
+        <f t="shared" si="23"/>
         <v>0.29773245305118479</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2014</v>
       </c>
@@ -45269,29 +45407,38 @@
       <c r="AR28" s="234">
         <v>89916.579832372314</v>
       </c>
-      <c r="AS28" s="47">
+      <c r="AS28" s="234">
         <f t="shared" si="20"/>
         <v>4847.826555335615</v>
       </c>
       <c r="AT28" s="47"/>
-      <c r="AU28" s="199">
+      <c r="AU28" s="234">
+        <v>228003.65900000001</v>
+      </c>
+      <c r="AV28" s="47"/>
+      <c r="AW28" s="199">
+        <f t="shared" si="21"/>
+        <v>0.39436463531654248</v>
+      </c>
+      <c r="AX28" s="47"/>
+      <c r="AY28" s="2">
         <f t="shared" si="7"/>
         <v>0.15482360705784573</v>
       </c>
-      <c r="AV28" s="199">
+      <c r="AZ28" s="2">
         <f t="shared" si="8"/>
         <v>0.25555963843112184</v>
       </c>
-      <c r="AY28" s="2">
+      <c r="BC28" s="2">
         <f>AO28/AS28</f>
         <v>0.15482360705784573</v>
       </c>
-      <c r="AZ28" s="2">
+      <c r="BD28" s="2">
         <f>AP28/AS28</f>
         <v>0.25555963843112184</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2015</v>
       </c>
@@ -45367,8 +45514,15 @@
       <c r="AR29" s="234">
         <v>48279.535886051359</v>
       </c>
-    </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU29" s="234">
+        <v>228031.37</v>
+      </c>
+      <c r="AW29" s="199">
+        <f t="shared" si="21"/>
+        <v>0.21172321986247489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2016</v>
       </c>
@@ -45444,8 +45598,15 @@
       <c r="AR30" s="234">
         <v>25463.36708301929</v>
       </c>
-    </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU30" s="234">
+        <v>234533.182</v>
+      </c>
+      <c r="AW30" s="199">
+        <f t="shared" si="21"/>
+        <v>0.10857042430362493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2017</v>
       </c>
@@ -45521,8 +45682,15 @@
       <c r="AR31" s="234">
         <v>33065.04695414834</v>
       </c>
-    </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AU31" s="234">
+        <v>259184.717</v>
+      </c>
+      <c r="AW31" s="199">
+        <f t="shared" si="21"/>
+        <v>0.12757328957072858</v>
+      </c>
+    </row>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -45584,8 +45752,12 @@
         <v>0</v>
       </c>
       <c r="AC32" s="230"/>
-    </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AU32" s="234">
+        <v>278387.647</v>
+      </c>
+      <c r="AW32" s="199"/>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -45633,7 +45805,7 @@
       </c>
       <c r="AC33" s="230"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2020</v>
       </c>
@@ -45656,7 +45828,7 @@
         <v>359158143.10094869</v>
       </c>
       <c r="T34" s="231">
-        <f t="shared" si="3"/>
+        <f>P34/R34</f>
         <v>0.44682823307719899</v>
       </c>
       <c r="U34" s="231">
@@ -45681,11 +45853,11 @@
       </c>
       <c r="AC34" s="230"/>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="E36" s="2">
         <f>D37/E37-1</f>
         <v>0.2260550023707919</v>
@@ -45693,7 +45865,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:48" s="224" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:52" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="224" t="s">
         <v>484</v>
       </c>
@@ -45706,27 +45878,27 @@
         <v>6.2064857142857148</v>
       </c>
       <c r="H37" s="229">
-        <f t="shared" ref="H37:I37" si="23">AVERAGE(H19:H32)</f>
+        <f t="shared" ref="H37:I37" si="24">AVERAGE(H19:H32)</f>
         <v>8.097434876120861</v>
       </c>
       <c r="I37" s="229">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.9150230604441747</v>
       </c>
       <c r="K37" s="227">
-        <f t="shared" ref="K37" si="24">D37/H37-1</f>
+        <f t="shared" ref="K37" si="25">D37/H37-1</f>
         <v>-6.0258838316431751E-2</v>
       </c>
       <c r="L37" s="227">
-        <f t="shared" ref="L37" si="25">E37/I37-1</f>
+        <f t="shared" ref="L37" si="26">E37/I37-1</f>
         <v>-0.10246348276283956</v>
       </c>
       <c r="W37" s="232">
-        <f t="shared" ref="W37:X37" si="26">AVERAGE(W21:W28)</f>
+        <f t="shared" ref="W37:X37" si="27">AVERAGE(W21:W28)</f>
         <v>1103153205.875</v>
       </c>
       <c r="X37" s="232">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2821587824.75</v>
       </c>
       <c r="Y37" s="232"/>
@@ -45754,7 +45926,7 @@
         <v>6889.1461025766312</v>
       </c>
       <c r="AM37" s="232">
-        <f t="shared" ref="AM37" si="27">AVERAGE(AM21:AM28)</f>
+        <f t="shared" ref="AM37" si="28">AVERAGE(AM21:AM28)</f>
         <v>17209.415702721246</v>
       </c>
       <c r="AN37" s="232"/>
@@ -45765,16 +45937,16 @@
         <f>AVERAGE(AR21:AR28)</f>
         <v>54939.144615744932</v>
       </c>
-      <c r="AU37" s="233">
+      <c r="AY37" s="233">
         <f>AL37/AR37</f>
         <v>0.12539594765736997</v>
       </c>
-      <c r="AV37" s="233">
+      <c r="AZ37" s="233">
         <f>AM37/AR37</f>
         <v>0.31324506093218685</v>
       </c>
     </row>
-    <row r="38" spans="1:48" s="224" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="224" t="s">
         <v>486</v>
       </c>
@@ -45783,23 +45955,23 @@
       <c r="K38" s="227"/>
       <c r="L38" s="227"/>
     </row>
-    <row r="39" spans="1:48" s="224" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D39" s="228"/>
       <c r="E39" s="228"/>
       <c r="K39" s="227"/>
       <c r="L39" s="227"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="224" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B41" s="218" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B43" s="218"/>
     </row>
   </sheetData>

--- a/analisis/data/bolivia/TG YPFB.xlsx
+++ b/analisis/data/bolivia/TG YPFB.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="582">
   <si>
     <t>Utilidad Año corriente</t>
   </si>
@@ -1931,6 +1931,12 @@
   </si>
   <si>
     <t>% a partir de M$</t>
+  </si>
+  <si>
+    <t>Renta/Plusvalía</t>
+  </si>
+  <si>
+    <t>Plusvalía total</t>
   </si>
 </sst>
 </file>
@@ -2592,7 +2598,7 @@
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -3101,6 +3107,7 @@
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -29098,22 +29105,22 @@
       <c r="O1" s="52"/>
     </row>
     <row r="2" spans="1:17" s="54" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="240" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
-      <c r="N2" s="239"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="240"/>
+      <c r="M2" s="240"/>
+      <c r="N2" s="240"/>
     </row>
     <row r="3" spans="1:17" s="59" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="55"/>
@@ -43336,13 +43343,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD43"/>
+  <dimension ref="A1:BF43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="AP15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="AP18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AW21" sqref="AW21"/>
+      <selection pane="bottomRight" activeCell="AW30" sqref="AW30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43368,15 +43375,15 @@
     <col min="45" max="45" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:58" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="225" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:58" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="225"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B3" s="223" t="s">
         <v>479</v>
       </c>
@@ -43440,19 +43447,25 @@
       <c r="AU3" s="223" t="s">
         <v>576</v>
       </c>
-      <c r="AW3" s="223" t="s">
+      <c r="AV3" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="AX3" s="223" t="s">
         <v>578</v>
       </c>
       <c r="AY3" s="223" t="s">
+        <v>580</v>
+      </c>
+      <c r="BA3" s="223" t="s">
         <v>503</v>
       </c>
-      <c r="AZ3" s="223"/>
-      <c r="BC3" s="223" t="s">
+      <c r="BB3" s="223"/>
+      <c r="BE3" s="223" t="s">
         <v>503</v>
       </c>
-      <c r="BD3" s="223"/>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BF3" s="223"/>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B4" s="222" t="s">
         <v>480</v>
       </c>
@@ -43537,23 +43550,29 @@
       <c r="AU4" s="222" t="s">
         <v>480</v>
       </c>
-      <c r="AW4" s="222" t="s">
+      <c r="AV4" s="222" t="s">
         <v>480</v>
       </c>
+      <c r="AX4" s="222" t="s">
+        <v>480</v>
+      </c>
       <c r="AY4" s="222" t="s">
+        <v>480</v>
+      </c>
+      <c r="BA4" s="222" t="s">
         <v>469</v>
       </c>
-      <c r="AZ4" s="222" t="s">
+      <c r="BB4" s="222" t="s">
         <v>470</v>
       </c>
-      <c r="BC4" s="222" t="s">
+      <c r="BE4" s="222" t="s">
         <v>469</v>
       </c>
-      <c r="BD4" s="222" t="s">
+      <c r="BF4" s="222" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>487</v>
       </c>
@@ -43632,23 +43651,29 @@
       <c r="AU5" t="s">
         <v>577</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AV5" t="s">
+        <v>577</v>
+      </c>
+      <c r="AX5" t="s">
         <v>579</v>
       </c>
       <c r="AY5" t="s">
+        <v>579</v>
+      </c>
+      <c r="BA5" t="s">
         <v>573</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BB5" t="s">
         <v>573</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BE5" t="s">
         <v>575</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BF5" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1992</v>
       </c>
@@ -43681,7 +43706,7 @@
         <v>22014.006000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1993</v>
       </c>
@@ -43714,7 +43739,7 @@
         <v>24458.969000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1994</v>
       </c>
@@ -43747,7 +43772,7 @@
         <v>27636.342000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1995</v>
       </c>
@@ -43780,7 +43805,7 @@
         <v>32235.073</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1996</v>
       </c>
@@ -43813,7 +43838,7 @@
         <v>37536.646999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1997</v>
       </c>
@@ -43846,7 +43871,7 @@
         <v>41643.866000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1998</v>
       </c>
@@ -43879,7 +43904,7 @@
         <v>46822.326000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1999</v>
       </c>
@@ -43917,7 +43942,7 @@
         <v>48156.175000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2000</v>
       </c>
@@ -43961,8 +43986,11 @@
       <c r="AU14" s="234">
         <v>51928.491999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AV14" s="239">
+        <v>22382.432915091456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2001</v>
       </c>
@@ -44006,8 +44034,11 @@
       <c r="AU15" s="234">
         <v>53790.326999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AV15" s="239">
+        <v>26119.832896991178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -44051,8 +44082,11 @@
       <c r="AU16" s="234">
         <v>56682.328000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AV16" s="239">
+        <v>24285.879247959499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2003</v>
       </c>
@@ -44117,8 +44151,11 @@
       <c r="AU17" s="234">
         <v>61904.449000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AV17" s="239">
+        <v>16536.812663795921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2004</v>
       </c>
@@ -44183,8 +44220,11 @@
       <c r="AU18" s="234">
         <v>69626.112999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AV18" s="239">
+        <v>25195.016739419523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2005</v>
       </c>
@@ -44252,8 +44292,11 @@
       <c r="AU19" s="234">
         <v>77023.816999999995</v>
       </c>
-    </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AV19" s="239">
+        <v>33099.573002917045</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2006</v>
       </c>
@@ -44323,10 +44366,13 @@
       <c r="AU20" s="234">
         <v>91747.794999999998</v>
       </c>
-      <c r="BC20" s="199"/>
-      <c r="BD20" s="199"/>
-    </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AV20" s="239">
+        <v>42562.254638684739</v>
+      </c>
+      <c r="BE20" s="199"/>
+      <c r="BF20" s="199"/>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2007</v>
       </c>
@@ -44442,30 +44488,37 @@
       <c r="AU21" s="234">
         <v>103009.182</v>
       </c>
-      <c r="AV21" s="47"/>
-      <c r="AW21" s="199">
+      <c r="AV21" s="239">
+        <v>46614.242710020786</v>
+      </c>
+      <c r="AW21" s="47"/>
+      <c r="AX21" s="199">
         <f>AR21/AU21</f>
         <v>0.22437827516339093</v>
       </c>
-      <c r="AX21" s="47"/>
-      <c r="AY21" s="2">
-        <f t="shared" ref="AY21:AY28" si="7">AL21/AR21</f>
+      <c r="AY21" s="199">
+        <f>AR21/AV21</f>
+        <v>0.49583606295899657</v>
+      </c>
+      <c r="AZ21" s="47"/>
+      <c r="BA21" s="2">
+        <f t="shared" ref="BA21:BA28" si="7">AL21/AR21</f>
         <v>9.1681165911268556E-2</v>
       </c>
-      <c r="AZ21" s="2">
-        <f t="shared" ref="AZ21:AZ28" si="8">AM21/AR21</f>
+      <c r="BB21" s="2">
+        <f t="shared" ref="BB21:BB28" si="8">AM21/AR21</f>
         <v>0.45080237933082784</v>
       </c>
-      <c r="BC21" s="2">
+      <c r="BE21" s="2">
         <f>AO21/AS21</f>
         <v>9.1681165911268556E-2</v>
       </c>
-      <c r="BD21" s="2">
+      <c r="BF21" s="2">
         <f>AP21/AS21</f>
         <v>0.45080237933082784</v>
       </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2008</v>
       </c>
@@ -44581,30 +44634,37 @@
       <c r="AU22" s="234">
         <v>120693.764</v>
       </c>
-      <c r="AV22" s="47"/>
-      <c r="AW22" s="199">
-        <f t="shared" ref="AW22:AW31" si="21">AR22/AU22</f>
+      <c r="AV22" s="239">
+        <v>52494.646149859254</v>
+      </c>
+      <c r="AW22" s="47"/>
+      <c r="AX22" s="199">
+        <f t="shared" ref="AX22:AX31" si="21">AR22/AU22</f>
         <v>0.37661801951988405</v>
       </c>
-      <c r="AX22" s="47"/>
-      <c r="AY22" s="2">
+      <c r="AY22" s="199">
+        <f t="shared" ref="AY22:AY31" si="22">AR22/AV22</f>
+        <v>0.8659063295010353</v>
+      </c>
+      <c r="AZ22" s="47"/>
+      <c r="BA22" s="2">
         <f t="shared" si="7"/>
         <v>4.4011784005611392E-2</v>
       </c>
-      <c r="AZ22" s="2">
+      <c r="BB22" s="2">
         <f t="shared" si="8"/>
         <v>0.39644236337493238</v>
       </c>
-      <c r="BC22" s="2">
-        <f t="shared" ref="BC22:BC27" si="22">AO22/AS22</f>
+      <c r="BE22" s="2">
+        <f t="shared" ref="BE22:BE27" si="23">AO22/AS22</f>
         <v>4.4011784005611385E-2</v>
       </c>
-      <c r="BD22" s="2">
-        <f t="shared" ref="BD22:BD27" si="23">AP22/AS22</f>
+      <c r="BF22" s="2">
+        <f t="shared" ref="BF22:BF27" si="24">AP22/AS22</f>
         <v>0.39644236337493233</v>
       </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2009</v>
       </c>
@@ -44720,30 +44780,37 @@
       <c r="AU23" s="234">
         <v>121726.745</v>
       </c>
-      <c r="AV23" s="47"/>
-      <c r="AW23" s="199">
+      <c r="AV23" s="239">
+        <v>44469.092363893928</v>
+      </c>
+      <c r="AW23" s="47"/>
+      <c r="AX23" s="199">
         <f t="shared" si="21"/>
         <v>0.22652572544857047</v>
       </c>
-      <c r="AX23" s="47"/>
-      <c r="AY23" s="2">
+      <c r="AY23" s="199">
+        <f t="shared" si="22"/>
+        <v>0.62007650149402804</v>
+      </c>
+      <c r="AZ23" s="47"/>
+      <c r="BA23" s="2">
         <f t="shared" si="7"/>
         <v>7.9413244896194099E-2</v>
       </c>
-      <c r="AZ23" s="2">
+      <c r="BB23" s="2">
         <f t="shared" si="8"/>
         <v>0.32216400248600396</v>
       </c>
-      <c r="BC23" s="2">
-        <f t="shared" si="22"/>
+      <c r="BE23" s="2">
+        <f t="shared" si="23"/>
         <v>7.9413244896194099E-2</v>
       </c>
-      <c r="BD23" s="2">
-        <f t="shared" si="23"/>
+      <c r="BF23" s="2">
+        <f t="shared" si="24"/>
         <v>0.32216400248600396</v>
       </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -44859,30 +44926,37 @@
       <c r="AU24" s="234">
         <v>137875.568</v>
       </c>
-      <c r="AV24" s="47"/>
-      <c r="AW24" s="199">
+      <c r="AV24" s="239">
+        <v>50027.000976298601</v>
+      </c>
+      <c r="AW24" s="47"/>
+      <c r="AX24" s="199">
         <f t="shared" si="21"/>
         <v>0.30682231598185239</v>
       </c>
-      <c r="AX24" s="47"/>
-      <c r="AY24" s="2">
+      <c r="AY24" s="199">
+        <f t="shared" si="22"/>
+        <v>0.8456093762469491</v>
+      </c>
+      <c r="AZ24" s="47"/>
+      <c r="BA24" s="2">
         <f t="shared" si="7"/>
         <v>7.1501627931479447E-2</v>
       </c>
-      <c r="AZ24" s="2">
+      <c r="BB24" s="2">
         <f t="shared" si="8"/>
         <v>0.32188424074690386</v>
       </c>
-      <c r="BC24" s="2">
-        <f t="shared" si="22"/>
+      <c r="BE24" s="2">
+        <f t="shared" si="23"/>
         <v>7.1501627931479447E-2</v>
       </c>
-      <c r="BD24" s="2">
-        <f t="shared" si="23"/>
+      <c r="BF24" s="2">
+        <f t="shared" si="24"/>
         <v>0.32188424074690386</v>
       </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2011</v>
       </c>
@@ -44998,30 +45072,37 @@
       <c r="AU25" s="234">
         <v>166231.56299999999</v>
       </c>
-      <c r="AV25" s="47"/>
-      <c r="AW25" s="199">
+      <c r="AV25" s="239">
+        <v>70811.916929784682</v>
+      </c>
+      <c r="AW25" s="47"/>
+      <c r="AX25" s="199">
         <f t="shared" si="21"/>
         <v>0.35350665328869202</v>
       </c>
-      <c r="AX25" s="47"/>
-      <c r="AY25" s="2">
+      <c r="AY25" s="199">
+        <f t="shared" si="22"/>
+        <v>0.82985980404043058</v>
+      </c>
+      <c r="AZ25" s="47"/>
+      <c r="BA25" s="2">
         <f t="shared" si="7"/>
         <v>0.103120278841674</v>
       </c>
-      <c r="AZ25" s="2">
+      <c r="BB25" s="2">
         <f t="shared" si="8"/>
         <v>0.29448355961009659</v>
       </c>
-      <c r="BC25" s="2">
-        <f t="shared" si="22"/>
+      <c r="BE25" s="2">
+        <f t="shared" si="23"/>
         <v>0.10312027884167399</v>
       </c>
-      <c r="BD25" s="2">
-        <f t="shared" si="23"/>
+      <c r="BF25" s="2">
+        <f t="shared" si="24"/>
         <v>0.29448355961009659</v>
       </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2012</v>
       </c>
@@ -45137,30 +45218,37 @@
       <c r="AU26" s="234">
         <v>187153.878</v>
       </c>
-      <c r="AV26" s="47"/>
-      <c r="AW26" s="199">
+      <c r="AV26" s="239">
+        <v>82726.009233434845</v>
+      </c>
+      <c r="AW26" s="47"/>
+      <c r="AX26" s="199">
         <f t="shared" si="21"/>
         <v>0.37271550248545537</v>
       </c>
-      <c r="AX26" s="47"/>
-      <c r="AY26" s="2">
+      <c r="AY26" s="199">
+        <f t="shared" si="22"/>
+        <v>0.84320701950021193</v>
+      </c>
+      <c r="AZ26" s="47"/>
+      <c r="BA26" s="2">
         <f t="shared" si="7"/>
         <v>0.17117614906952228</v>
       </c>
-      <c r="AZ26" s="2">
+      <c r="BB26" s="2">
         <f t="shared" si="8"/>
         <v>0.31322600315128979</v>
       </c>
-      <c r="BC26" s="2">
+      <c r="BE26" s="2">
         <f>AO26/AS26</f>
         <v>0.17117614906952228</v>
       </c>
-      <c r="BD26" s="2">
-        <f t="shared" si="23"/>
+      <c r="BF26" s="2">
+        <f t="shared" si="24"/>
         <v>0.31322600315128979</v>
       </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2013</v>
       </c>
@@ -45276,30 +45364,37 @@
       <c r="AU27" s="234">
         <v>211856.03200000001</v>
       </c>
-      <c r="AV27" s="47"/>
-      <c r="AW27" s="199">
+      <c r="AV27" s="239">
+        <v>59277.910223122337</v>
+      </c>
+      <c r="AW27" s="47"/>
+      <c r="AX27" s="199">
         <f t="shared" si="21"/>
         <v>0.3900358742096785</v>
       </c>
-      <c r="AX27" s="47"/>
-      <c r="AY27" s="2">
+      <c r="AY27" s="199">
+        <f t="shared" si="22"/>
+        <v>1.3939670331948013</v>
+      </c>
+      <c r="AZ27" s="47"/>
+      <c r="BA27" s="2">
         <f t="shared" si="7"/>
         <v>0.16770449695898357</v>
       </c>
-      <c r="AZ27" s="2">
+      <c r="BB27" s="2">
         <f t="shared" si="8"/>
         <v>0.29773245305118473</v>
       </c>
-      <c r="BC27" s="2">
-        <f t="shared" si="22"/>
+      <c r="BE27" s="2">
+        <f t="shared" si="23"/>
         <v>0.16770449695898357</v>
       </c>
-      <c r="BD27" s="2">
-        <f t="shared" si="23"/>
+      <c r="BF27" s="2">
+        <f t="shared" si="24"/>
         <v>0.29773245305118479</v>
       </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2014</v>
       </c>
@@ -45415,30 +45510,37 @@
       <c r="AU28" s="234">
         <v>228003.65900000001</v>
       </c>
-      <c r="AV28" s="47"/>
-      <c r="AW28" s="199">
+      <c r="AV28" s="239">
+        <v>51433.457733584481</v>
+      </c>
+      <c r="AW28" s="47"/>
+      <c r="AX28" s="199">
         <f t="shared" si="21"/>
         <v>0.39436463531654248</v>
       </c>
-      <c r="AX28" s="47"/>
-      <c r="AY28" s="2">
+      <c r="AY28" s="199">
+        <f>AR28/AV28</f>
+        <v>1.7482118409795251</v>
+      </c>
+      <c r="AZ28" s="47"/>
+      <c r="BA28" s="2">
         <f t="shared" si="7"/>
         <v>0.15482360705784573</v>
       </c>
-      <c r="AZ28" s="2">
+      <c r="BB28" s="2">
         <f t="shared" si="8"/>
         <v>0.25555963843112184</v>
       </c>
-      <c r="BC28" s="2">
+      <c r="BE28" s="2">
         <f>AO28/AS28</f>
         <v>0.15482360705784573</v>
       </c>
-      <c r="BD28" s="2">
+      <c r="BF28" s="2">
         <f>AP28/AS28</f>
         <v>0.25555963843112184</v>
       </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2015</v>
       </c>
@@ -45517,12 +45619,19 @@
       <c r="AU29" s="234">
         <v>228031.37</v>
       </c>
-      <c r="AW29" s="199">
+      <c r="AV29" s="239">
+        <v>66279.14078832895</v>
+      </c>
+      <c r="AX29" s="199">
         <f t="shared" si="21"/>
         <v>0.21172321986247489</v>
       </c>
-    </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AY29" s="199">
+        <f t="shared" si="22"/>
+        <v>0.72842730475698725</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2016</v>
       </c>
@@ -45601,12 +45710,19 @@
       <c r="AU30" s="234">
         <v>234533.182</v>
       </c>
-      <c r="AW30" s="199">
+      <c r="AV30" s="239">
+        <v>59782.119588600821</v>
+      </c>
+      <c r="AX30" s="199">
         <f t="shared" si="21"/>
         <v>0.10857042430362493</v>
       </c>
-    </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AY30" s="199">
+        <f t="shared" si="22"/>
+        <v>0.42593617051802579</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2017</v>
       </c>
@@ -45685,12 +45801,19 @@
       <c r="AU31" s="234">
         <v>259184.717</v>
       </c>
-      <c r="AW31" s="199">
+      <c r="AV31" s="239">
+        <v>86372.005102225026</v>
+      </c>
+      <c r="AX31" s="199">
         <f t="shared" si="21"/>
         <v>0.12757328957072858</v>
       </c>
-    </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AY31" s="199">
+        <f t="shared" si="22"/>
+        <v>0.38282134257522932</v>
+      </c>
+    </row>
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -45755,9 +45878,12 @@
       <c r="AU32" s="234">
         <v>278387.647</v>
       </c>
-      <c r="AW32" s="199"/>
-    </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="AV32" s="239">
+        <v>99337.087137575407</v>
+      </c>
+      <c r="AX32" s="199"/>
+    </row>
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -45805,7 +45931,7 @@
       </c>
       <c r="AC33" s="230"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2020</v>
       </c>
@@ -45853,11 +45979,11 @@
       </c>
       <c r="AC34" s="230"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E36" s="2">
         <f>D37/E37-1</f>
         <v>0.2260550023707919</v>
@@ -45865,7 +45991,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:52" s="224" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="224" t="s">
         <v>484</v>
       </c>
@@ -45878,27 +46004,27 @@
         <v>6.2064857142857148</v>
       </c>
       <c r="H37" s="229">
-        <f t="shared" ref="H37:I37" si="24">AVERAGE(H19:H32)</f>
+        <f t="shared" ref="H37:I37" si="25">AVERAGE(H19:H32)</f>
         <v>8.097434876120861</v>
       </c>
       <c r="I37" s="229">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.9150230604441747</v>
       </c>
       <c r="K37" s="227">
-        <f t="shared" ref="K37" si="25">D37/H37-1</f>
+        <f t="shared" ref="K37" si="26">D37/H37-1</f>
         <v>-6.0258838316431751E-2</v>
       </c>
       <c r="L37" s="227">
-        <f t="shared" ref="L37" si="26">E37/I37-1</f>
+        <f t="shared" ref="L37" si="27">E37/I37-1</f>
         <v>-0.10246348276283956</v>
       </c>
       <c r="W37" s="232">
-        <f t="shared" ref="W37:X37" si="27">AVERAGE(W21:W28)</f>
+        <f t="shared" ref="W37:X37" si="28">AVERAGE(W21:W28)</f>
         <v>1103153205.875</v>
       </c>
       <c r="X37" s="232">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2821587824.75</v>
       </c>
       <c r="Y37" s="232"/>
@@ -45926,7 +46052,7 @@
         <v>6889.1461025766312</v>
       </c>
       <c r="AM37" s="232">
-        <f t="shared" ref="AM37" si="28">AVERAGE(AM21:AM28)</f>
+        <f t="shared" ref="AM37" si="29">AVERAGE(AM21:AM28)</f>
         <v>17209.415702721246</v>
       </c>
       <c r="AN37" s="232"/>
@@ -45937,16 +46063,16 @@
         <f>AVERAGE(AR21:AR28)</f>
         <v>54939.144615744932</v>
       </c>
-      <c r="AY37" s="233">
+      <c r="BA37" s="233">
         <f>AL37/AR37</f>
         <v>0.12539594765736997</v>
       </c>
-      <c r="AZ37" s="233">
+      <c r="BB37" s="233">
         <f>AM37/AR37</f>
         <v>0.31324506093218685</v>
       </c>
     </row>
-    <row r="38" spans="1:52" s="224" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="224" t="s">
         <v>486</v>
       </c>
@@ -45955,23 +46081,23 @@
       <c r="K38" s="227"/>
       <c r="L38" s="227"/>
     </row>
-    <row r="39" spans="1:52" s="224" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" s="224" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D39" s="228"/>
       <c r="E39" s="228"/>
       <c r="K39" s="227"/>
       <c r="L39" s="227"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" s="224" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B41" s="218" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B43" s="218"/>
     </row>
   </sheetData>
@@ -46236,11 +46362,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="240" t="s">
+      <c r="B1" s="241" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="185" t="s">

--- a/analisis/data/bolivia/TG YPFB.xlsx
+++ b/analisis/data/bolivia/TG YPFB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TG" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,22 @@
     <sheet name="Costos I c ponderación" sheetId="5" r:id="rId4"/>
     <sheet name="Costos II sin ponderación" sheetId="11" r:id="rId5"/>
     <sheet name="Comparación precio" sheetId="12" r:id="rId6"/>
-    <sheet name="Costos Balances" sheetId="10" r:id="rId7"/>
-    <sheet name="Producción" sheetId="6" r:id="rId8"/>
-    <sheet name="Brasil" sheetId="13" r:id="rId9"/>
-    <sheet name="Argentina" sheetId="14" r:id="rId10"/>
-    <sheet name="Precio internacional Gas Petról" sheetId="8" r:id="rId11"/>
-    <sheet name="Potencia" sheetId="9" r:id="rId12"/>
+    <sheet name="Renta" sheetId="15" r:id="rId7"/>
+    <sheet name="Costos Balances" sheetId="10" r:id="rId8"/>
+    <sheet name="Producción" sheetId="6" r:id="rId9"/>
+    <sheet name="Brasil" sheetId="13" r:id="rId10"/>
+    <sheet name="Argentina" sheetId="14" r:id="rId11"/>
+    <sheet name="Precio internacional Gas Petról" sheetId="8" r:id="rId12"/>
+    <sheet name="Potencia" sheetId="9" r:id="rId13"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId14"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">IPC!$C$2:$E$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Precio internacional Gas Petról'!$A$1:$G$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Precio internacional Gas Petról'!$A$1:$G$182</definedName>
+    <definedName name="_ftn1">[1]Economía!#REF!</definedName>
+    <definedName name="_ftnref1">[1]Economía!#REF!</definedName>
     <definedName name="_Regression_Int" localSheetId="1" hidden="1">1</definedName>
     <definedName name="A_impresión_IM" localSheetId="1">'Exportación Hidrocarburos'!$A$1:$O$340</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Exportación Hidrocarburos'!$A$1:$P$340</definedName>
@@ -42,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="602">
   <si>
     <t>Utilidad Año corriente</t>
   </si>
@@ -1937,6 +1943,66 @@
   </si>
   <si>
     <t>Plusvalía total</t>
+  </si>
+  <si>
+    <t>Millones $2017</t>
+  </si>
+  <si>
+    <t>KTA YPFB M$2008</t>
+  </si>
+  <si>
+    <t>TG YPFB</t>
+  </si>
+  <si>
+    <t>TG Capital Social</t>
+  </si>
+  <si>
+    <t>Apropiado por YPFB</t>
+  </si>
+  <si>
+    <t>Ganancias YPFB</t>
+  </si>
+  <si>
+    <t>Renta Apropiada por YPFB * Estimado año 2007</t>
+  </si>
+  <si>
+    <t>Apropiación por Sobrevaluación</t>
+  </si>
+  <si>
+    <t>Renta total M$2017</t>
+  </si>
+  <si>
+    <t>Renta total M$</t>
+  </si>
+  <si>
+    <t>IPC 2017 = 1</t>
+  </si>
+  <si>
+    <t>Exportación Hidrocarburos Mu$S</t>
+  </si>
+  <si>
+    <t>Export Hidrocarburos TCC (M$)</t>
+  </si>
+  <si>
+    <t>Export Hidrocarburos TCP (M$)</t>
+  </si>
+  <si>
+    <t>Renta total M u$s tcp</t>
+  </si>
+  <si>
+    <t>Plusvalía Total M$2017</t>
+  </si>
+  <si>
+    <t>Renta apropiada por YPFB</t>
+  </si>
+  <si>
+    <t>Renta apropiada por Impuestos y Regalías directas</t>
+  </si>
+  <si>
+    <t>Renta apropiada por sobrevaluación de la moneda</t>
+  </si>
+  <si>
+    <t>M$</t>
   </si>
 </sst>
 </file>
@@ -2598,7 +2664,7 @@
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -3108,6 +3174,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4367,6 +4437,933 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Cursos de apropiación de la renta hidrocarburífera (2008-2017) sobre el</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> total de plusvalía</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1537705084161777"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7122703412073491E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.87232174103237092"/>
+          <c:h val="0.66086253595297406"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Renta!$X$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Renta apropiada por YPFB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Renta!$C$21:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Renta!$X$21:$X$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>7.1462255941055153E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4409788029914139E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9166916678684296E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7912492620769832E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.939088385537397E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9002142503472187E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10887556791400042</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.9078666664671422E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.0731515427921276E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.4620540775645615E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1D1-46CF-B5DA-0A9C8842124A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Renta!$Y$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Renta apropiada por Impuestos y Regalías directas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Renta!$C$21:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Renta!$Y$21:$Y$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.16130878951002584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28941989163252479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22924436699695525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25819164386387078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21054527083165264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8268425467006658E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11633736539433551</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14061968002410541</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6006598648809342E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1369131690834172E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9055286053323314E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F1D1-46CF-B5DA-0A9C8842124A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="436785160"/>
+        <c:axId val="436783592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="436785160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436783592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="436783592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436785160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.8667801659927645E-2"/>
+          <c:y val="0.63421129866753867"/>
+          <c:w val="0.97892322834645651"/>
+          <c:h val="0.17187664041994752"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Renta hidrocarburífera apropiada por sobrevaluación de la moneda como porcentaje de la plusvalía total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.464566929133858E-2"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Renta!$C$14:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Renta!$Z$14:$Z$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2.9539866844292065E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.964202650096834E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4172839677693192E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8795251775383078E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12054859596088004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19644787205963393</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23066525430955331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2946976337635836</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50502418192745535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36642234646715871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52825081570439403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57140204058800814</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.71554771017783136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.707328572774645</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44529855425511289</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.40753635474554262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FB8-49C2-A5E6-599AF3BBB1E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="693976152"/>
+        <c:axId val="693969880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="693976152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693969880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="693969880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693976152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -8301,6 +9298,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9636,6 +10713,1014 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -14102,6 +16187,75 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -14153,6 +16307,43 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SPR"/>
+      <sheetName val="Salarios"/>
+      <sheetName val="Impuestos"/>
+      <sheetName val="Economía"/>
+      <sheetName val="Gasto"/>
+      <sheetName val="Salud"/>
+      <sheetName val="Educación"/>
+      <sheetName val="Seguridad Social y Asistencia"/>
+      <sheetName val="Otros condiciones de vida"/>
+      <sheetName val="Financiamiento del gasto"/>
+      <sheetName val="Lucha"/>
+      <sheetName val="Delito"/>
+      <sheetName val="Faltan series"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18776,6 +20967,2186 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AG8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AM24" sqref="AM24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.28515625" customWidth="1"/>
+    <col min="282" max="282" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="13.28515625" customWidth="1"/>
+    <col min="538" max="538" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="542" max="542" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="544" max="544" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="554" max="554" width="13.28515625" customWidth="1"/>
+    <col min="794" max="794" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="798" max="798" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="800" max="800" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="810" max="810" width="13.28515625" customWidth="1"/>
+    <col min="1050" max="1050" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1054" max="1054" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1056" max="1056" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1066" max="1066" width="13.28515625" customWidth="1"/>
+    <col min="1306" max="1306" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1310" max="1310" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1312" max="1312" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1322" max="1322" width="13.28515625" customWidth="1"/>
+    <col min="1562" max="1562" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1566" max="1566" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1568" max="1568" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1578" max="1578" width="13.28515625" customWidth="1"/>
+    <col min="1818" max="1818" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1822" max="1822" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1824" max="1824" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1834" max="1834" width="13.28515625" customWidth="1"/>
+    <col min="2074" max="2074" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2078" max="2078" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2080" max="2080" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2090" max="2090" width="13.28515625" customWidth="1"/>
+    <col min="2330" max="2330" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2334" max="2334" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2336" max="2336" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2346" max="2346" width="13.28515625" customWidth="1"/>
+    <col min="2586" max="2586" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2590" max="2590" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2592" max="2592" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2602" max="2602" width="13.28515625" customWidth="1"/>
+    <col min="2842" max="2842" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2846" max="2846" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2848" max="2848" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2858" max="2858" width="13.28515625" customWidth="1"/>
+    <col min="3098" max="3098" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3102" max="3102" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3104" max="3104" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3114" max="3114" width="13.28515625" customWidth="1"/>
+    <col min="3354" max="3354" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3358" max="3358" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3360" max="3360" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3370" max="3370" width="13.28515625" customWidth="1"/>
+    <col min="3610" max="3610" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3614" max="3614" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3616" max="3616" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3626" max="3626" width="13.28515625" customWidth="1"/>
+    <col min="3866" max="3866" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3870" max="3870" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3872" max="3872" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3882" max="3882" width="13.28515625" customWidth="1"/>
+    <col min="4122" max="4122" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4126" max="4126" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4128" max="4128" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4138" max="4138" width="13.28515625" customWidth="1"/>
+    <col min="4378" max="4378" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4382" max="4382" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4384" max="4384" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4394" max="4394" width="13.28515625" customWidth="1"/>
+    <col min="4634" max="4634" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4638" max="4638" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4640" max="4640" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4650" max="4650" width="13.28515625" customWidth="1"/>
+    <col min="4890" max="4890" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4894" max="4894" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4896" max="4896" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4906" max="4906" width="13.28515625" customWidth="1"/>
+    <col min="5146" max="5146" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5150" max="5150" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5152" max="5152" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5162" max="5162" width="13.28515625" customWidth="1"/>
+    <col min="5402" max="5402" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5406" max="5406" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5408" max="5408" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5418" max="5418" width="13.28515625" customWidth="1"/>
+    <col min="5658" max="5658" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5662" max="5662" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5664" max="5664" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5674" max="5674" width="13.28515625" customWidth="1"/>
+    <col min="5914" max="5914" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5918" max="5918" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5920" max="5920" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5930" max="5930" width="13.28515625" customWidth="1"/>
+    <col min="6170" max="6170" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6174" max="6174" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6176" max="6176" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6186" max="6186" width="13.28515625" customWidth="1"/>
+    <col min="6426" max="6426" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6430" max="6430" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6432" max="6432" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6442" max="6442" width="13.28515625" customWidth="1"/>
+    <col min="6682" max="6682" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6686" max="6686" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6688" max="6688" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6698" max="6698" width="13.28515625" customWidth="1"/>
+    <col min="6938" max="6938" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6942" max="6942" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6944" max="6944" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6954" max="6954" width="13.28515625" customWidth="1"/>
+    <col min="7194" max="7194" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7198" max="7198" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7200" max="7200" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7210" max="7210" width="13.28515625" customWidth="1"/>
+    <col min="7450" max="7450" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7454" max="7454" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7456" max="7456" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7466" max="7466" width="13.28515625" customWidth="1"/>
+    <col min="7706" max="7706" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7710" max="7710" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7712" max="7712" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7722" max="7722" width="13.28515625" customWidth="1"/>
+    <col min="7962" max="7962" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7966" max="7966" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7968" max="7968" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7978" max="7978" width="13.28515625" customWidth="1"/>
+    <col min="8218" max="8218" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8222" max="8222" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8224" max="8224" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8234" max="8234" width="13.28515625" customWidth="1"/>
+    <col min="8474" max="8474" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8478" max="8478" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8480" max="8480" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8490" max="8490" width="13.28515625" customWidth="1"/>
+    <col min="8730" max="8730" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8734" max="8734" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8736" max="8736" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8746" max="8746" width="13.28515625" customWidth="1"/>
+    <col min="8986" max="8986" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8990" max="8990" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8992" max="8992" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9002" max="9002" width="13.28515625" customWidth="1"/>
+    <col min="9242" max="9242" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9246" max="9246" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9248" max="9248" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9258" max="9258" width="13.28515625" customWidth="1"/>
+    <col min="9498" max="9498" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9502" max="9502" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9504" max="9504" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9514" max="9514" width="13.28515625" customWidth="1"/>
+    <col min="9754" max="9754" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9758" max="9758" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9760" max="9760" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9770" max="9770" width="13.28515625" customWidth="1"/>
+    <col min="10010" max="10010" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10014" max="10014" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10016" max="10016" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10026" max="10026" width="13.28515625" customWidth="1"/>
+    <col min="10266" max="10266" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10270" max="10270" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10272" max="10272" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10282" max="10282" width="13.28515625" customWidth="1"/>
+    <col min="10522" max="10522" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10526" max="10526" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10528" max="10528" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10538" max="10538" width="13.28515625" customWidth="1"/>
+    <col min="10778" max="10778" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10782" max="10782" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10784" max="10784" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10794" max="10794" width="13.28515625" customWidth="1"/>
+    <col min="11034" max="11034" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11038" max="11038" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11040" max="11040" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11050" max="11050" width="13.28515625" customWidth="1"/>
+    <col min="11290" max="11290" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11294" max="11294" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11296" max="11296" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11306" max="11306" width="13.28515625" customWidth="1"/>
+    <col min="11546" max="11546" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11550" max="11550" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11552" max="11552" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11562" max="11562" width="13.28515625" customWidth="1"/>
+    <col min="11802" max="11802" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11806" max="11806" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11808" max="11808" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11818" max="11818" width="13.28515625" customWidth="1"/>
+    <col min="12058" max="12058" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12062" max="12062" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12064" max="12064" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12074" max="12074" width="13.28515625" customWidth="1"/>
+    <col min="12314" max="12314" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12318" max="12318" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12320" max="12320" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12330" max="12330" width="13.28515625" customWidth="1"/>
+    <col min="12570" max="12570" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12574" max="12574" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12576" max="12576" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12586" max="12586" width="13.28515625" customWidth="1"/>
+    <col min="12826" max="12826" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12830" max="12830" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12832" max="12832" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12842" max="12842" width="13.28515625" customWidth="1"/>
+    <col min="13082" max="13082" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13086" max="13086" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13088" max="13088" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13098" max="13098" width="13.28515625" customWidth="1"/>
+    <col min="13338" max="13338" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13342" max="13342" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13344" max="13344" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13354" max="13354" width="13.28515625" customWidth="1"/>
+    <col min="13594" max="13594" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13598" max="13598" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13600" max="13600" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13610" max="13610" width="13.28515625" customWidth="1"/>
+    <col min="13850" max="13850" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13854" max="13854" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13856" max="13856" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13866" max="13866" width="13.28515625" customWidth="1"/>
+    <col min="14106" max="14106" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14110" max="14110" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14112" max="14112" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14122" max="14122" width="13.28515625" customWidth="1"/>
+    <col min="14362" max="14362" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14366" max="14366" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14368" max="14368" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14378" max="14378" width="13.28515625" customWidth="1"/>
+    <col min="14618" max="14618" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14622" max="14622" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14624" max="14624" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14634" max="14634" width="13.28515625" customWidth="1"/>
+    <col min="14874" max="14874" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14878" max="14878" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14880" max="14880" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14890" max="14890" width="13.28515625" customWidth="1"/>
+    <col min="15130" max="15130" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15134" max="15134" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15136" max="15136" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15146" max="15146" width="13.28515625" customWidth="1"/>
+    <col min="15386" max="15386" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15390" max="15390" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15392" max="15392" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15402" max="15402" width="13.28515625" customWidth="1"/>
+    <col min="15642" max="15642" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15646" max="15646" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15648" max="15648" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15658" max="15658" width="13.28515625" customWidth="1"/>
+    <col min="15898" max="15898" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15902" max="15902" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15904" max="15904" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15914" max="15914" width="13.28515625" customWidth="1"/>
+    <col min="16154" max="16154" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16158" max="16158" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16160" max="16160" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16170" max="16170" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I1" t="s">
+        <v>514</v>
+      </c>
+      <c r="J1" t="s">
+        <v>515</v>
+      </c>
+      <c r="K1" t="s">
+        <v>516</v>
+      </c>
+      <c r="L1" t="s">
+        <v>517</v>
+      </c>
+      <c r="M1" t="s">
+        <v>518</v>
+      </c>
+      <c r="N1" t="s">
+        <v>519</v>
+      </c>
+      <c r="O1" t="s">
+        <v>520</v>
+      </c>
+      <c r="P1" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R1" t="s">
+        <v>523</v>
+      </c>
+      <c r="S1" t="s">
+        <v>524</v>
+      </c>
+      <c r="T1" t="s">
+        <v>525</v>
+      </c>
+      <c r="U1" t="s">
+        <v>526</v>
+      </c>
+      <c r="V1" t="s">
+        <v>527</v>
+      </c>
+      <c r="W1" t="s">
+        <v>528</v>
+      </c>
+      <c r="X1" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>530</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>532</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>536</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>540</v>
+      </c>
+      <c r="AM1" s="209">
+        <v>1</v>
+      </c>
+      <c r="AN1" s="209" t="s">
+        <v>541</v>
+      </c>
+      <c r="AO1" s="235">
+        <v>3.9652608749182999E-2</v>
+      </c>
+      <c r="AP1" s="209" t="s">
+        <v>542</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B2">
+        <v>1999</v>
+      </c>
+      <c r="C2">
+        <v>1999</v>
+      </c>
+      <c r="D2">
+        <v>1999</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>545</v>
+      </c>
+      <c r="I2">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>546</v>
+      </c>
+      <c r="K2" t="s">
+        <v>547</v>
+      </c>
+      <c r="L2">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
+        <v>548</v>
+      </c>
+      <c r="N2" t="s">
+        <v>549</v>
+      </c>
+      <c r="V2">
+        <v>271121</v>
+      </c>
+      <c r="W2" t="s">
+        <v>550</v>
+      </c>
+      <c r="X2">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z2" s="236">
+        <v>532396062</v>
+      </c>
+      <c r="AD2" s="236">
+        <v>532396062</v>
+      </c>
+      <c r="AE2" s="236"/>
+      <c r="AF2" s="236">
+        <v>15115608</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <f>AF2/AD2</f>
+        <v>2.8391660041993325E-2</v>
+      </c>
+      <c r="AP2" s="236">
+        <f>AD2*$AO$1</f>
+        <v>21110892.746091776</v>
+      </c>
+      <c r="AR2">
+        <f>AF2/AP2</f>
+        <v>0.71600989033485229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>545</v>
+      </c>
+      <c r="I3">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>546</v>
+      </c>
+      <c r="K3" t="s">
+        <v>547</v>
+      </c>
+      <c r="L3">
+        <v>76</v>
+      </c>
+      <c r="M3" t="s">
+        <v>548</v>
+      </c>
+      <c r="N3" t="s">
+        <v>549</v>
+      </c>
+      <c r="V3">
+        <v>271121</v>
+      </c>
+      <c r="W3" t="s">
+        <v>550</v>
+      </c>
+      <c r="X3">
+        <v>8</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z3" s="236">
+        <v>2783304994</v>
+      </c>
+      <c r="AD3" s="236">
+        <v>2783304994</v>
+      </c>
+      <c r="AE3" s="236"/>
+      <c r="AF3" s="236">
+        <v>120541117</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" ref="AK3:AK23" si="0">AF3/AD3</f>
+        <v>4.3308626708122813E-2</v>
+      </c>
+      <c r="AP3" s="236">
+        <f t="shared" ref="AP3:AP23" si="1">AD3*$AO$1</f>
+        <v>110365303.95672913</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" ref="AR3:AR23" si="2">AF3/AP3</f>
+        <v>1.0922011961953233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B4">
+        <v>2001</v>
+      </c>
+      <c r="C4">
+        <v>2001</v>
+      </c>
+      <c r="D4">
+        <v>2001</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>545</v>
+      </c>
+      <c r="I4">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>546</v>
+      </c>
+      <c r="K4" t="s">
+        <v>547</v>
+      </c>
+      <c r="L4">
+        <v>76</v>
+      </c>
+      <c r="M4" t="s">
+        <v>548</v>
+      </c>
+      <c r="N4" t="s">
+        <v>549</v>
+      </c>
+      <c r="V4">
+        <v>271121</v>
+      </c>
+      <c r="W4" t="s">
+        <v>550</v>
+      </c>
+      <c r="X4">
+        <v>8</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z4" s="236">
+        <v>5102229774</v>
+      </c>
+      <c r="AD4" s="236">
+        <v>5102229774</v>
+      </c>
+      <c r="AE4" s="236"/>
+      <c r="AF4" s="236">
+        <v>234752063</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="0"/>
+        <v>4.6009700346356847E-2</v>
+      </c>
+      <c r="AP4" s="236">
+        <f t="shared" si="1"/>
+        <v>202316720.97685438</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" si="2"/>
+        <v>1.1603196308566919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B5">
+        <v>2002</v>
+      </c>
+      <c r="C5">
+        <v>2002</v>
+      </c>
+      <c r="D5">
+        <v>2002</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>545</v>
+      </c>
+      <c r="I5">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K5" t="s">
+        <v>547</v>
+      </c>
+      <c r="L5">
+        <v>76</v>
+      </c>
+      <c r="M5" t="s">
+        <v>548</v>
+      </c>
+      <c r="N5" t="s">
+        <v>549</v>
+      </c>
+      <c r="V5">
+        <v>271121</v>
+      </c>
+      <c r="W5" t="s">
+        <v>553</v>
+      </c>
+      <c r="X5">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z5" s="236">
+        <v>5780401019</v>
+      </c>
+      <c r="AD5" s="236">
+        <v>5780401019</v>
+      </c>
+      <c r="AE5" s="236"/>
+      <c r="AF5" s="236">
+        <v>244098306</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="0"/>
+        <v>4.2228610990423743E-2</v>
+      </c>
+      <c r="AP5" s="236">
+        <f t="shared" si="1"/>
+        <v>229207980.01978573</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="2"/>
+        <v>1.0649642563881454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B6">
+        <v>2003</v>
+      </c>
+      <c r="C6">
+        <v>2003</v>
+      </c>
+      <c r="D6">
+        <v>2003</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>545</v>
+      </c>
+      <c r="I6">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>546</v>
+      </c>
+      <c r="K6" t="s">
+        <v>547</v>
+      </c>
+      <c r="L6">
+        <v>76</v>
+      </c>
+      <c r="M6" t="s">
+        <v>548</v>
+      </c>
+      <c r="N6" t="s">
+        <v>549</v>
+      </c>
+      <c r="V6">
+        <v>271121</v>
+      </c>
+      <c r="W6" t="s">
+        <v>553</v>
+      </c>
+      <c r="X6">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z6" s="236">
+        <v>7173558305</v>
+      </c>
+      <c r="AD6" s="236">
+        <v>7173558305</v>
+      </c>
+      <c r="AE6" s="236"/>
+      <c r="AF6" s="236">
+        <v>379637840</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="0"/>
+        <v>5.2921830960151371E-2</v>
+      </c>
+      <c r="AP6" s="236">
+        <f t="shared" si="1"/>
+        <v>284450300.80761737</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="2"/>
+        <v>1.3346368027107869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B7">
+        <v>2004</v>
+      </c>
+      <c r="C7">
+        <v>2004</v>
+      </c>
+      <c r="D7">
+        <v>2004</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>545</v>
+      </c>
+      <c r="I7">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K7" t="s">
+        <v>547</v>
+      </c>
+      <c r="L7">
+        <v>76</v>
+      </c>
+      <c r="M7" t="s">
+        <v>548</v>
+      </c>
+      <c r="N7" t="s">
+        <v>549</v>
+      </c>
+      <c r="V7">
+        <v>271121</v>
+      </c>
+      <c r="W7" t="s">
+        <v>553</v>
+      </c>
+      <c r="X7">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z7" s="236">
+        <v>10129551347</v>
+      </c>
+      <c r="AD7" s="236">
+        <v>10129551347</v>
+      </c>
+      <c r="AE7" s="236"/>
+      <c r="AF7" s="236">
+        <v>570586739</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="0"/>
+        <v>5.6328925087979022E-2</v>
+      </c>
+      <c r="AP7" s="236">
+        <f t="shared" si="1"/>
+        <v>401663136.36735064</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="2"/>
+        <v>1.4205603834108298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B8">
+        <v>2005</v>
+      </c>
+      <c r="C8">
+        <v>2005</v>
+      </c>
+      <c r="D8">
+        <v>2005</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>545</v>
+      </c>
+      <c r="I8">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>546</v>
+      </c>
+      <c r="K8" t="s">
+        <v>547</v>
+      </c>
+      <c r="L8">
+        <v>76</v>
+      </c>
+      <c r="M8" t="s">
+        <v>548</v>
+      </c>
+      <c r="N8" t="s">
+        <v>549</v>
+      </c>
+      <c r="V8">
+        <v>271121</v>
+      </c>
+      <c r="W8" t="s">
+        <v>553</v>
+      </c>
+      <c r="X8">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z8" s="236">
+        <v>11495199945</v>
+      </c>
+      <c r="AD8" s="236">
+        <v>11495199945</v>
+      </c>
+      <c r="AE8" s="236"/>
+      <c r="AF8" s="236">
+        <v>822147800</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="0"/>
+        <v>7.1520965614661175E-2</v>
+      </c>
+      <c r="AP8" s="236">
+        <f t="shared" si="1"/>
+        <v>455814665.91271496</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="2"/>
+        <v>1.8036887829261621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B9">
+        <v>2006</v>
+      </c>
+      <c r="C9">
+        <v>2006</v>
+      </c>
+      <c r="D9">
+        <v>2006</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>545</v>
+      </c>
+      <c r="I9">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>546</v>
+      </c>
+      <c r="K9" t="s">
+        <v>547</v>
+      </c>
+      <c r="L9">
+        <v>76</v>
+      </c>
+      <c r="M9" t="s">
+        <v>548</v>
+      </c>
+      <c r="N9" t="s">
+        <v>549</v>
+      </c>
+      <c r="V9">
+        <v>271121</v>
+      </c>
+      <c r="W9" t="s">
+        <v>553</v>
+      </c>
+      <c r="X9">
+        <v>8</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z9" s="236">
+        <v>12385592620</v>
+      </c>
+      <c r="AD9" s="236">
+        <v>12385592620</v>
+      </c>
+      <c r="AE9" s="236"/>
+      <c r="AF9" s="236">
+        <v>1391404541</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="0"/>
+        <v>0.11234057050715431</v>
+      </c>
+      <c r="AP9" s="236">
+        <f t="shared" si="1"/>
+        <v>491121058.28762841</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="2"/>
+        <v>2.8331192839731876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B10">
+        <v>2007</v>
+      </c>
+      <c r="C10">
+        <v>2007</v>
+      </c>
+      <c r="D10">
+        <v>2007</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>545</v>
+      </c>
+      <c r="I10">
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>546</v>
+      </c>
+      <c r="K10" t="s">
+        <v>547</v>
+      </c>
+      <c r="L10">
+        <v>76</v>
+      </c>
+      <c r="M10" t="s">
+        <v>548</v>
+      </c>
+      <c r="N10" t="s">
+        <v>549</v>
+      </c>
+      <c r="V10">
+        <v>271121</v>
+      </c>
+      <c r="W10" t="s">
+        <v>553</v>
+      </c>
+      <c r="X10">
+        <v>8</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z10" s="236">
+        <v>13529018178</v>
+      </c>
+      <c r="AD10" s="236">
+        <v>13529018178</v>
+      </c>
+      <c r="AE10" s="236"/>
+      <c r="AF10" s="236">
+        <v>1663117302</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="0"/>
+        <v>0.12292963762177894</v>
+      </c>
+      <c r="AP10" s="236">
+        <f t="shared" si="1"/>
+        <v>536460864.57281864</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="2"/>
+        <v>3.1001651971842024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>554</v>
+      </c>
+      <c r="B11">
+        <v>2008</v>
+      </c>
+      <c r="C11">
+        <v>2008</v>
+      </c>
+      <c r="D11">
+        <v>2008</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>545</v>
+      </c>
+      <c r="I11">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>546</v>
+      </c>
+      <c r="K11" t="s">
+        <v>547</v>
+      </c>
+      <c r="L11">
+        <v>76</v>
+      </c>
+      <c r="M11" t="s">
+        <v>548</v>
+      </c>
+      <c r="N11" t="s">
+        <v>549</v>
+      </c>
+      <c r="V11">
+        <v>271121</v>
+      </c>
+      <c r="W11" t="s">
+        <v>553</v>
+      </c>
+      <c r="X11">
+        <v>8</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z11" s="236">
+        <v>8513074237</v>
+      </c>
+      <c r="AD11" s="236">
+        <v>8513074237</v>
+      </c>
+      <c r="AE11" s="236"/>
+      <c r="AF11" s="236">
+        <v>2852347866</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="0"/>
+        <v>0.33505497386631095</v>
+      </c>
+      <c r="AP11" s="236">
+        <f t="shared" si="1"/>
+        <v>337565601.97251058</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="2"/>
+        <v>8.449758652341238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>554</v>
+      </c>
+      <c r="B12">
+        <v>2009</v>
+      </c>
+      <c r="C12">
+        <v>2009</v>
+      </c>
+      <c r="D12">
+        <v>2009</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>545</v>
+      </c>
+      <c r="I12">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>546</v>
+      </c>
+      <c r="K12" t="s">
+        <v>547</v>
+      </c>
+      <c r="L12">
+        <v>76</v>
+      </c>
+      <c r="M12" t="s">
+        <v>548</v>
+      </c>
+      <c r="N12" t="s">
+        <v>549</v>
+      </c>
+      <c r="V12">
+        <v>271121</v>
+      </c>
+      <c r="W12" t="s">
+        <v>553</v>
+      </c>
+      <c r="X12">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z12" s="236">
+        <v>6209386091</v>
+      </c>
+      <c r="AD12" s="236">
+        <v>6209386091</v>
+      </c>
+      <c r="AE12" s="236"/>
+      <c r="AF12" s="236">
+        <v>1587464640</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="0"/>
+        <v>0.25565565045164462</v>
+      </c>
+      <c r="AP12" s="236">
+        <f t="shared" si="1"/>
+        <v>246218357.23904184</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="2"/>
+        <v>6.4473853931971661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>554</v>
+      </c>
+      <c r="B13">
+        <v>2010</v>
+      </c>
+      <c r="C13">
+        <v>2010</v>
+      </c>
+      <c r="D13">
+        <v>2010</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>545</v>
+      </c>
+      <c r="I13">
+        <v>68</v>
+      </c>
+      <c r="J13" t="s">
+        <v>546</v>
+      </c>
+      <c r="K13" t="s">
+        <v>547</v>
+      </c>
+      <c r="L13">
+        <v>76</v>
+      </c>
+      <c r="M13" t="s">
+        <v>548</v>
+      </c>
+      <c r="N13" t="s">
+        <v>549</v>
+      </c>
+      <c r="V13">
+        <v>271121</v>
+      </c>
+      <c r="W13" t="s">
+        <v>553</v>
+      </c>
+      <c r="X13">
+        <v>8</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z13" s="236">
+        <v>7512506000</v>
+      </c>
+      <c r="AD13" s="236">
+        <v>7512506000</v>
+      </c>
+      <c r="AE13" s="236"/>
+      <c r="AF13" s="236">
+        <v>2302023638</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="0"/>
+        <v>0.30642553070839479</v>
+      </c>
+      <c r="AP13" s="236">
+        <f t="shared" si="1"/>
+        <v>297890461.14388978</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="2"/>
+        <v>7.7277521044490758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>554</v>
+      </c>
+      <c r="B14">
+        <v>2011</v>
+      </c>
+      <c r="C14">
+        <v>2011</v>
+      </c>
+      <c r="D14">
+        <v>2011</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>545</v>
+      </c>
+      <c r="I14">
+        <v>68</v>
+      </c>
+      <c r="J14" t="s">
+        <v>546</v>
+      </c>
+      <c r="K14" t="s">
+        <v>547</v>
+      </c>
+      <c r="L14">
+        <v>76</v>
+      </c>
+      <c r="M14" t="s">
+        <v>548</v>
+      </c>
+      <c r="N14" t="s">
+        <v>549</v>
+      </c>
+      <c r="V14">
+        <v>271121</v>
+      </c>
+      <c r="W14" t="s">
+        <v>553</v>
+      </c>
+      <c r="X14">
+        <v>8</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z14" s="236">
+        <v>7495476000</v>
+      </c>
+      <c r="AD14" s="236">
+        <v>7495476000</v>
+      </c>
+      <c r="AE14" s="236"/>
+      <c r="AF14" s="236">
+        <v>2897595242</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="0"/>
+        <v>0.38657921685027075</v>
+      </c>
+      <c r="AP14" s="236">
+        <f t="shared" si="1"/>
+        <v>297215177.21689117</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="2"/>
+        <v>9.7491496535706705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B15">
+        <v>2012</v>
+      </c>
+      <c r="C15">
+        <v>2012</v>
+      </c>
+      <c r="D15">
+        <v>2012</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>545</v>
+      </c>
+      <c r="I15">
+        <v>68</v>
+      </c>
+      <c r="J15" t="s">
+        <v>546</v>
+      </c>
+      <c r="K15" t="s">
+        <v>547</v>
+      </c>
+      <c r="L15">
+        <v>76</v>
+      </c>
+      <c r="M15" t="s">
+        <v>548</v>
+      </c>
+      <c r="N15" t="s">
+        <v>549</v>
+      </c>
+      <c r="V15">
+        <v>271121</v>
+      </c>
+      <c r="W15" s="237" t="s">
+        <v>556</v>
+      </c>
+      <c r="X15">
+        <v>8</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z15" s="236">
+        <v>7704360000</v>
+      </c>
+      <c r="AD15" s="236">
+        <v>7704360000</v>
+      </c>
+      <c r="AE15" s="236"/>
+      <c r="AF15" s="236">
+        <v>3565747112</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="0"/>
+        <v>0.4628219750894299</v>
+      </c>
+      <c r="AP15" s="236">
+        <f t="shared" si="1"/>
+        <v>305497972.74285555</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="2"/>
+        <v>11.671917427096542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>555</v>
+      </c>
+      <c r="B16">
+        <v>2013</v>
+      </c>
+      <c r="C16">
+        <v>2013</v>
+      </c>
+      <c r="D16">
+        <v>2013</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>545</v>
+      </c>
+      <c r="I16">
+        <v>68</v>
+      </c>
+      <c r="J16" t="s">
+        <v>546</v>
+      </c>
+      <c r="K16" t="s">
+        <v>547</v>
+      </c>
+      <c r="L16">
+        <v>76</v>
+      </c>
+      <c r="M16" t="s">
+        <v>548</v>
+      </c>
+      <c r="N16" t="s">
+        <v>549</v>
+      </c>
+      <c r="V16">
+        <v>271121</v>
+      </c>
+      <c r="W16" s="237" t="s">
+        <v>556</v>
+      </c>
+      <c r="X16">
+        <v>8</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z16" s="236">
+        <v>8742000000</v>
+      </c>
+      <c r="AD16" s="236">
+        <v>8742000000</v>
+      </c>
+      <c r="AE16" s="236"/>
+      <c r="AF16" s="236">
+        <v>3928863915</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="0"/>
+        <v>0.4494239207275223</v>
+      </c>
+      <c r="AP16" s="236">
+        <f t="shared" si="1"/>
+        <v>346643105.68535781</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="2"/>
+        <v>11.334031603577209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>555</v>
+      </c>
+      <c r="B17">
+        <v>2014</v>
+      </c>
+      <c r="C17">
+        <v>2014</v>
+      </c>
+      <c r="D17">
+        <v>2014</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>545</v>
+      </c>
+      <c r="I17">
+        <v>68</v>
+      </c>
+      <c r="J17" t="s">
+        <v>546</v>
+      </c>
+      <c r="K17" t="s">
+        <v>547</v>
+      </c>
+      <c r="L17">
+        <v>76</v>
+      </c>
+      <c r="M17" t="s">
+        <v>548</v>
+      </c>
+      <c r="N17" t="s">
+        <v>549</v>
+      </c>
+      <c r="V17">
+        <v>271121</v>
+      </c>
+      <c r="W17" s="237" t="s">
+        <v>556</v>
+      </c>
+      <c r="X17">
+        <v>8</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z17" s="236">
+        <v>9031501000</v>
+      </c>
+      <c r="AD17" s="236">
+        <v>9031501000</v>
+      </c>
+      <c r="AE17" s="236"/>
+      <c r="AF17" s="236">
+        <v>3775542883</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="0"/>
+        <v>0.4180415728238307</v>
+      </c>
+      <c r="AP17" s="236">
+        <f t="shared" si="1"/>
+        <v>358122575.57085502</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="2"/>
+        <v>10.542599491198521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>555</v>
+      </c>
+      <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>2015</v>
+      </c>
+      <c r="D18">
+        <v>2015</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>545</v>
+      </c>
+      <c r="I18">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>546</v>
+      </c>
+      <c r="K18" t="s">
+        <v>547</v>
+      </c>
+      <c r="L18">
+        <v>76</v>
+      </c>
+      <c r="M18" t="s">
+        <v>548</v>
+      </c>
+      <c r="N18" t="s">
+        <v>549</v>
+      </c>
+      <c r="V18">
+        <v>271121</v>
+      </c>
+      <c r="W18" s="237" t="s">
+        <v>556</v>
+      </c>
+      <c r="X18">
+        <v>8</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z18" s="236">
+        <v>8812863000</v>
+      </c>
+      <c r="AD18" s="236">
+        <v>8812863000</v>
+      </c>
+      <c r="AE18" s="236"/>
+      <c r="AF18" s="236">
+        <v>2402631954</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="0"/>
+        <v>0.27262785703125081</v>
+      </c>
+      <c r="AP18" s="236">
+        <f t="shared" si="1"/>
+        <v>349453008.49915111</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="2"/>
+        <v>6.8754078390080204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>555</v>
+      </c>
+      <c r="B19">
+        <v>2016</v>
+      </c>
+      <c r="C19">
+        <v>2016</v>
+      </c>
+      <c r="D19">
+        <v>2016</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>545</v>
+      </c>
+      <c r="I19">
+        <v>68</v>
+      </c>
+      <c r="J19" t="s">
+        <v>546</v>
+      </c>
+      <c r="K19" t="s">
+        <v>547</v>
+      </c>
+      <c r="L19">
+        <v>76</v>
+      </c>
+      <c r="M19" t="s">
+        <v>548</v>
+      </c>
+      <c r="N19" t="s">
+        <v>549</v>
+      </c>
+      <c r="V19">
+        <v>271121</v>
+      </c>
+      <c r="W19" s="237" t="s">
+        <v>556</v>
+      </c>
+      <c r="X19">
+        <v>8</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z19" s="236">
+        <v>7818616000</v>
+      </c>
+      <c r="AD19" s="236">
+        <v>7818616000</v>
+      </c>
+      <c r="AE19" s="236"/>
+      <c r="AF19" s="236">
+        <v>1302987687</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="0"/>
+        <v>0.16665196078180589</v>
+      </c>
+      <c r="AP19" s="236">
+        <f t="shared" si="1"/>
+        <v>310028521.20810217</v>
+      </c>
+      <c r="AR19">
+        <f t="shared" si="2"/>
+        <v>4.2027994131720172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>557</v>
+      </c>
+      <c r="B20">
+        <v>2017</v>
+      </c>
+      <c r="C20">
+        <v>2017</v>
+      </c>
+      <c r="D20">
+        <v>2017</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>545</v>
+      </c>
+      <c r="I20">
+        <v>68</v>
+      </c>
+      <c r="J20" t="s">
+        <v>546</v>
+      </c>
+      <c r="K20" t="s">
+        <v>547</v>
+      </c>
+      <c r="L20">
+        <v>76</v>
+      </c>
+      <c r="M20" t="s">
+        <v>548</v>
+      </c>
+      <c r="N20" t="s">
+        <v>549</v>
+      </c>
+      <c r="V20">
+        <v>271121</v>
+      </c>
+      <c r="W20" s="237" t="s">
+        <v>556</v>
+      </c>
+      <c r="X20">
+        <v>8</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z20" s="236">
+        <v>6616912000</v>
+      </c>
+      <c r="AD20" s="236">
+        <v>6616912000</v>
+      </c>
+      <c r="AE20" s="236"/>
+      <c r="AF20" s="236">
+        <v>1400919157</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="0"/>
+        <v>0.21171796708192583</v>
+      </c>
+      <c r="AP20" s="236">
+        <f t="shared" si="1"/>
+        <v>262377822.66377398</v>
+      </c>
+      <c r="AR20">
+        <f t="shared" si="2"/>
+        <v>5.3393200034105712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>557</v>
+      </c>
+      <c r="B21">
+        <v>2018</v>
+      </c>
+      <c r="C21">
+        <v>2018</v>
+      </c>
+      <c r="D21">
+        <v>2018</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>545</v>
+      </c>
+      <c r="I21">
+        <v>68</v>
+      </c>
+      <c r="J21" t="s">
+        <v>546</v>
+      </c>
+      <c r="K21" t="s">
+        <v>547</v>
+      </c>
+      <c r="L21">
+        <v>76</v>
+      </c>
+      <c r="M21" t="s">
+        <v>548</v>
+      </c>
+      <c r="N21" t="s">
+        <v>549</v>
+      </c>
+      <c r="V21">
+        <v>271121</v>
+      </c>
+      <c r="W21" s="237" t="s">
+        <v>556</v>
+      </c>
+      <c r="X21">
+        <v>8</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z21" s="236">
+        <v>6065291000</v>
+      </c>
+      <c r="AD21" s="236">
+        <v>6065291000</v>
+      </c>
+      <c r="AE21" s="236"/>
+      <c r="AF21" s="236">
+        <v>1619372381</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="0"/>
+        <v>0.26699005554721117</v>
+      </c>
+      <c r="AP21" s="236">
+        <f t="shared" si="1"/>
+        <v>240504610.97294089</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="2"/>
+        <v>6.7332280011138543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>557</v>
+      </c>
+      <c r="B22">
+        <v>2019</v>
+      </c>
+      <c r="C22">
+        <v>2019</v>
+      </c>
+      <c r="D22">
+        <v>2019</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>545</v>
+      </c>
+      <c r="I22">
+        <v>68</v>
+      </c>
+      <c r="J22" t="s">
+        <v>546</v>
+      </c>
+      <c r="K22" t="s">
+        <v>547</v>
+      </c>
+      <c r="L22">
+        <v>76</v>
+      </c>
+      <c r="M22" t="s">
+        <v>548</v>
+      </c>
+      <c r="N22" t="s">
+        <v>549</v>
+      </c>
+      <c r="V22">
+        <v>271121</v>
+      </c>
+      <c r="W22" s="237" t="s">
+        <v>556</v>
+      </c>
+      <c r="X22">
+        <v>8</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z22" s="236">
+        <v>5151555000</v>
+      </c>
+      <c r="AD22" s="236">
+        <v>5151555000</v>
+      </c>
+      <c r="AE22" s="236"/>
+      <c r="AF22" s="236">
+        <v>1453911953</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="0"/>
+        <v>0.28222778423213962</v>
+      </c>
+      <c r="AP22" s="236">
+        <f t="shared" si="1"/>
+        <v>204272594.86489743</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="2"/>
+        <v>7.1175086112828483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>557</v>
+      </c>
+      <c r="B23">
+        <v>2020</v>
+      </c>
+      <c r="C23">
+        <v>2020</v>
+      </c>
+      <c r="D23">
+        <v>2020</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>545</v>
+      </c>
+      <c r="I23">
+        <v>68</v>
+      </c>
+      <c r="J23" t="s">
+        <v>546</v>
+      </c>
+      <c r="K23" t="s">
+        <v>547</v>
+      </c>
+      <c r="L23">
+        <v>76</v>
+      </c>
+      <c r="M23" t="s">
+        <v>548</v>
+      </c>
+      <c r="N23" t="s">
+        <v>549</v>
+      </c>
+      <c r="V23">
+        <v>271121</v>
+      </c>
+      <c r="W23" s="237" t="s">
+        <v>556</v>
+      </c>
+      <c r="X23">
+        <v>8</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z23" s="236">
+        <v>5010418000</v>
+      </c>
+      <c r="AD23" s="236">
+        <v>5010418000</v>
+      </c>
+      <c r="AE23" s="236"/>
+      <c r="AF23" s="236">
+        <v>1020468790</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="0"/>
+        <v>0.2036693924538831</v>
+      </c>
+      <c r="AP23" s="236">
+        <f t="shared" si="1"/>
+        <v>198676144.623864</v>
+      </c>
+      <c r="AR23">
+        <f t="shared" si="2"/>
+        <v>5.1363428253148538</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR37"/>
   <sheetViews>
@@ -24202,7 +28573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q185"/>
   <sheetViews>
@@ -28815,7 +33186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J12"/>
   <sheetViews>
@@ -29105,22 +33476,22 @@
       <c r="O1" s="52"/>
     </row>
     <row r="2" spans="1:17" s="54" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="244" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="240"/>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
     </row>
     <row r="3" spans="1:17" s="59" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="55"/>
@@ -43345,11 +47716,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="AP18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AW30" sqref="AW30"/>
+      <selection pane="bottomRight" activeCell="AU38" sqref="AU38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46109,6 +50480,1554 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:AG35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="Z4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AE18" sqref="AE18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="12" width="11.42578125" style="240"/>
+    <col min="13" max="13" width="17.140625" style="240" customWidth="1"/>
+    <col min="14" max="20" width="11.42578125" style="240"/>
+    <col min="21" max="21" width="18.7109375" style="240" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="240"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D1" s="240" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AD2" s="240" t="s">
+        <v>601</v>
+      </c>
+      <c r="AE2" s="240" t="s">
+        <v>601</v>
+      </c>
+      <c r="AF2" s="240" t="s">
+        <v>601</v>
+      </c>
+      <c r="AG2" s="240" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="3" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D3" s="240" t="s">
+        <v>583</v>
+      </c>
+      <c r="E3" s="240" t="s">
+        <v>584</v>
+      </c>
+      <c r="F3" s="240" t="s">
+        <v>585</v>
+      </c>
+      <c r="G3" s="240" t="s">
+        <v>586</v>
+      </c>
+      <c r="H3" s="240" t="s">
+        <v>587</v>
+      </c>
+      <c r="I3" s="240" t="s">
+        <v>588</v>
+      </c>
+      <c r="J3" s="240" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="240" t="s">
+        <v>589</v>
+      </c>
+      <c r="L3" s="240" t="s">
+        <v>590</v>
+      </c>
+      <c r="M3" s="240" t="s">
+        <v>591</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>592</v>
+      </c>
+      <c r="O3" s="240" t="s">
+        <v>593</v>
+      </c>
+      <c r="P3" s="240" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q3" s="240" t="s">
+        <v>571</v>
+      </c>
+      <c r="R3" s="240" t="s">
+        <v>594</v>
+      </c>
+      <c r="S3" s="240" t="s">
+        <v>595</v>
+      </c>
+      <c r="U3" s="240" t="s">
+        <v>596</v>
+      </c>
+      <c r="V3" s="240" t="s">
+        <v>597</v>
+      </c>
+      <c r="X3" s="240" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y3" s="240" t="s">
+        <v>599</v>
+      </c>
+      <c r="Z3" s="240" t="s">
+        <v>600</v>
+      </c>
+      <c r="AD3" s="240" t="s">
+        <v>588</v>
+      </c>
+      <c r="AE3" s="240" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF3" s="240" t="s">
+        <v>589</v>
+      </c>
+      <c r="AG3" s="240" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="4" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C4" s="240">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="5" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C5" s="240">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="6" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C6" s="240">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="7" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C7" s="240">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="8" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C8" s="240">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="9" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C9" s="240">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="10" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C10" s="240">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="11" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C11" s="240">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="12" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C12" s="240">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="13" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C13" s="240">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="14" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C14" s="240">
+        <v>2000</v>
+      </c>
+      <c r="K14" s="239">
+        <f t="shared" ref="K14:K31" si="0">(S14-R14)/N14</f>
+        <v>1503.3343278164748</v>
+      </c>
+      <c r="L14" s="239"/>
+      <c r="N14" s="239">
+        <v>0.43980508908050214</v>
+      </c>
+      <c r="O14" s="239">
+        <v>165.79080783001001</v>
+      </c>
+      <c r="P14" s="234">
+        <v>6.1835399999999998</v>
+      </c>
+      <c r="Q14" s="234">
+        <v>10.171542089000145</v>
+      </c>
+      <c r="R14" s="239">
+        <f>O14*P14</f>
+        <v>1025.1740918491801</v>
+      </c>
+      <c r="S14" s="239">
+        <f t="shared" ref="S14:S30" si="1">O14*Q14</f>
+        <v>1686.3481798122816</v>
+      </c>
+      <c r="T14" s="239"/>
+      <c r="V14" s="239">
+        <v>50891.709693233141</v>
+      </c>
+      <c r="X14" s="241"/>
+      <c r="Y14" s="241"/>
+      <c r="Z14" s="241">
+        <f t="shared" ref="Z14:Z26" si="2">K14/$V14</f>
+        <v>2.9539866844292065E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C15" s="240">
+        <v>2001</v>
+      </c>
+      <c r="K15" s="239">
+        <f t="shared" si="0"/>
+        <v>2317.3402739728413</v>
+      </c>
+      <c r="L15" s="239"/>
+      <c r="N15" s="239">
+        <v>0.44682393843189383</v>
+      </c>
+      <c r="O15" s="239">
+        <v>289.32278000000002</v>
+      </c>
+      <c r="P15" s="234">
+        <v>6.6069199999999997</v>
+      </c>
+      <c r="Q15" s="234">
+        <v>10.185770956372632</v>
+      </c>
+      <c r="R15" s="239">
+        <f t="shared" ref="R15:R31" si="3">O15*P15</f>
+        <v>1911.5324616376001</v>
+      </c>
+      <c r="S15" s="239">
+        <f t="shared" si="1"/>
+        <v>2946.975569540989</v>
+      </c>
+      <c r="T15" s="239"/>
+      <c r="V15" s="239">
+        <v>58456.655184271054</v>
+      </c>
+      <c r="X15" s="241"/>
+      <c r="Y15" s="241"/>
+      <c r="Z15" s="241">
+        <f t="shared" si="2"/>
+        <v>3.964202650096834E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C16" s="240">
+        <v>2002</v>
+      </c>
+      <c r="K16" s="239">
+        <f t="shared" si="0"/>
+        <v>2378.937843287742</v>
+      </c>
+      <c r="L16" s="239"/>
+      <c r="N16" s="239">
+        <v>0.45094757455677437</v>
+      </c>
+      <c r="O16" s="239">
+        <v>330.84476000000001</v>
+      </c>
+      <c r="P16" s="234">
+        <v>7.17</v>
+      </c>
+      <c r="Q16" s="234">
+        <v>10.412536621864378</v>
+      </c>
+      <c r="R16" s="239">
+        <f t="shared" si="3"/>
+        <v>2372.1569291999999</v>
+      </c>
+      <c r="S16" s="239">
+        <f t="shared" si="1"/>
+        <v>3444.9331796519309</v>
+      </c>
+      <c r="T16" s="239"/>
+      <c r="V16" s="239">
+        <v>53855.216477945381</v>
+      </c>
+      <c r="X16" s="241"/>
+      <c r="Y16" s="241"/>
+      <c r="Z16" s="241">
+        <f t="shared" si="2"/>
+        <v>4.4172839677693192E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C17" s="240">
+        <v>2003</v>
+      </c>
+      <c r="K17" s="239">
+        <f t="shared" si="0"/>
+        <v>3505.9158176131086</v>
+      </c>
+      <c r="L17" s="239"/>
+      <c r="N17" s="239">
+        <v>0.46600051332503301</v>
+      </c>
+      <c r="O17" s="239">
+        <v>490.86415499999998</v>
+      </c>
+      <c r="P17" s="234">
+        <v>7.6591699999999996</v>
+      </c>
+      <c r="Q17" s="234">
+        <v>10.987501380567116</v>
+      </c>
+      <c r="R17" s="239">
+        <f t="shared" si="3"/>
+        <v>3759.6120100513494</v>
+      </c>
+      <c r="S17" s="239">
+        <f t="shared" si="1"/>
+        <v>5393.3705807334109</v>
+      </c>
+      <c r="T17" s="239"/>
+      <c r="V17" s="239">
+        <v>35486.683363933502</v>
+      </c>
+      <c r="X17" s="241"/>
+      <c r="Y17" s="241"/>
+      <c r="Z17" s="241">
+        <f t="shared" si="2"/>
+        <v>9.8795251775383078E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C18" s="240">
+        <v>2004</v>
+      </c>
+      <c r="K18" s="239">
+        <f t="shared" si="0"/>
+        <v>6240.6587720650687</v>
+      </c>
+      <c r="L18" s="239"/>
+      <c r="N18" s="239">
+        <v>0.48668321792297881</v>
+      </c>
+      <c r="O18" s="239">
+        <v>838.85453999999993</v>
+      </c>
+      <c r="P18" s="234">
+        <v>7.9362700000000004</v>
+      </c>
+      <c r="Q18" s="234">
+        <v>11.55695004441854</v>
+      </c>
+      <c r="R18" s="239">
+        <f t="shared" si="3"/>
+        <v>6657.3761201657999</v>
+      </c>
+      <c r="S18" s="239">
+        <f t="shared" si="1"/>
+        <v>9694.6000133136931</v>
+      </c>
+      <c r="T18" s="239"/>
+      <c r="V18" s="239">
+        <v>51768.821713114463</v>
+      </c>
+      <c r="X18" s="241"/>
+      <c r="Y18" s="241"/>
+      <c r="Z18" s="241">
+        <f t="shared" si="2"/>
+        <v>0.12054859596088004</v>
+      </c>
+    </row>
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C19" s="240">
+        <v>2005</v>
+      </c>
+      <c r="K19" s="239">
+        <f t="shared" si="0"/>
+        <v>12676.473398760976</v>
+      </c>
+      <c r="L19" s="239"/>
+      <c r="N19" s="239">
+        <v>0.51294555496334748</v>
+      </c>
+      <c r="O19" s="239">
+        <v>1427.5027228500001</v>
+      </c>
+      <c r="P19" s="234">
+        <v>8.0660600000000002</v>
+      </c>
+      <c r="Q19" s="234">
+        <v>12.621106080419153</v>
+      </c>
+      <c r="R19" s="239">
+        <f t="shared" si="3"/>
+        <v>11514.322612671473</v>
+      </c>
+      <c r="S19" s="239">
+        <f t="shared" si="1"/>
+        <v>18016.663295177033</v>
+      </c>
+      <c r="T19" s="239"/>
+      <c r="V19" s="239">
+        <v>64528.433247232591</v>
+      </c>
+      <c r="X19" s="241"/>
+      <c r="Y19" s="241"/>
+      <c r="Z19" s="241">
+        <f t="shared" si="2"/>
+        <v>0.19644787205963393</v>
+      </c>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C20" s="240">
+        <v>2006</v>
+      </c>
+      <c r="K20" s="239">
+        <f t="shared" si="0"/>
+        <v>18354.193941824222</v>
+      </c>
+      <c r="L20" s="239"/>
+      <c r="N20" s="239">
+        <v>0.53489863522954617</v>
+      </c>
+      <c r="O20" s="239">
+        <v>2014.0165543699998</v>
+      </c>
+      <c r="P20" s="234">
+        <v>8.0116200000000006</v>
+      </c>
+      <c r="Q20" s="234">
+        <v>12.886273720654851</v>
+      </c>
+      <c r="R20" s="239">
+        <f>O20*P20</f>
+        <v>16135.535307321779</v>
+      </c>
+      <c r="S20" s="239">
+        <f t="shared" si="1"/>
+        <v>25953.16859754196</v>
+      </c>
+      <c r="T20" s="239"/>
+      <c r="V20" s="239">
+        <v>79570.692156317789</v>
+      </c>
+      <c r="X20" s="241"/>
+      <c r="Y20" s="241"/>
+      <c r="Z20" s="241">
+        <f t="shared" si="2"/>
+        <v>0.23066525430955331</v>
+      </c>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C21" s="240">
+        <v>2007</v>
+      </c>
+      <c r="I21" s="242">
+        <f>I22+(J21/J22-1)*I22</f>
+        <v>3193.0660337724025</v>
+      </c>
+      <c r="J21" s="239">
+        <v>12931.817129201299</v>
+      </c>
+      <c r="K21" s="239">
+        <f t="shared" si="0"/>
+        <v>23625.345648025817</v>
+      </c>
+      <c r="L21" s="239">
+        <f>I21+J21+K21</f>
+        <v>39750.228810999521</v>
+      </c>
+      <c r="M21" s="239">
+        <f>L21*N21</f>
+        <v>23113.022583151815</v>
+      </c>
+      <c r="N21" s="239">
+        <v>0.58145634061749285</v>
+      </c>
+      <c r="O21" s="239">
+        <v>2241.9804315400002</v>
+      </c>
+      <c r="P21" s="234">
+        <v>7.8512500000000003</v>
+      </c>
+      <c r="Q21" s="234">
+        <v>13.978469860205731</v>
+      </c>
+      <c r="R21" s="239">
+        <f t="shared" si="3"/>
+        <v>17602.348863128427</v>
+      </c>
+      <c r="S21" s="239">
+        <f t="shared" si="1"/>
+        <v>31339.455889452929</v>
+      </c>
+      <c r="T21" s="239"/>
+      <c r="U21" s="239">
+        <f>M21/Q21</f>
+        <v>1653.4730062945275</v>
+      </c>
+      <c r="V21" s="239">
+        <v>80168.087358919438</v>
+      </c>
+      <c r="X21" s="241"/>
+      <c r="Y21" s="241">
+        <f t="shared" ref="Y21:Y31" si="4">J21/$V21</f>
+        <v>0.16130878951002584</v>
+      </c>
+      <c r="Z21" s="241">
+        <f t="shared" si="2"/>
+        <v>0.2946976337635836</v>
+      </c>
+      <c r="AD21" s="240">
+        <f>I21*$N21</f>
+        <v>1856.628491347313</v>
+      </c>
+      <c r="AE21" s="240">
+        <f t="shared" ref="AE21:AG21" si="5">J21*$N21</f>
+        <v>7519.287065479999</v>
+      </c>
+      <c r="AF21" s="240">
+        <f t="shared" si="5"/>
+        <v>13737.107026324502</v>
+      </c>
+      <c r="AG21" s="240">
+        <f t="shared" si="5"/>
+        <v>23113.022583151815</v>
+      </c>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C22" s="240">
+        <v>2008</v>
+      </c>
+      <c r="D22" s="239">
+        <v>4655.2975475896274</v>
+      </c>
+      <c r="E22" s="243">
+        <v>1.4390386319820425</v>
+      </c>
+      <c r="F22" s="243">
+        <v>0.22343214774233042</v>
+      </c>
+      <c r="G22" s="239">
+        <f>D22*F22</f>
+        <v>1040.1431294375541</v>
+      </c>
+      <c r="H22" s="239">
+        <v>6699.1530143527343</v>
+      </c>
+      <c r="I22" s="239">
+        <f>H22-G22</f>
+        <v>5659.00988491518</v>
+      </c>
+      <c r="J22" s="239">
+        <v>22918.812260705621</v>
+      </c>
+      <c r="K22" s="239">
+        <f t="shared" si="0"/>
+        <v>39992.256052006102</v>
+      </c>
+      <c r="L22" s="239">
+        <f t="shared" ref="L22:L30" si="6">I22+J22+K22</f>
+        <v>68570.078197626906</v>
+      </c>
+      <c r="M22" s="239">
+        <f>L22*N22</f>
+        <v>45455.446366080279</v>
+      </c>
+      <c r="N22" s="239">
+        <v>0.66290498072748905</v>
+      </c>
+      <c r="O22" s="239">
+        <v>3486.6229363500001</v>
+      </c>
+      <c r="P22" s="234">
+        <v>7.2383199999999999</v>
+      </c>
+      <c r="Q22" s="234">
+        <v>14.841971502148734</v>
+      </c>
+      <c r="R22" s="239">
+        <f t="shared" si="3"/>
+        <v>25237.292532640931</v>
+      </c>
+      <c r="S22" s="239">
+        <f t="shared" si="1"/>
+        <v>51748.358260044843</v>
+      </c>
+      <c r="T22" s="239"/>
+      <c r="U22" s="239">
+        <f>M22/Q22</f>
+        <v>3062.6285975215292</v>
+      </c>
+      <c r="V22" s="239">
+        <v>79188.794285796845</v>
+      </c>
+      <c r="X22" s="241">
+        <f t="shared" ref="X22:X31" si="7">I22/$V22</f>
+        <v>7.1462255941055153E-2</v>
+      </c>
+      <c r="Y22" s="241">
+        <f t="shared" si="4"/>
+        <v>0.28941989163252479</v>
+      </c>
+      <c r="Z22" s="241">
+        <f t="shared" si="2"/>
+        <v>0.50502418192745535</v>
+      </c>
+      <c r="AD22" s="240">
+        <f t="shared" ref="AD22:AD30" si="8">I22*$N22</f>
+        <v>3751.3858386963675</v>
+      </c>
+      <c r="AE22" s="240">
+        <f t="shared" ref="AE22:AE30" si="9">J22*$N22</f>
+        <v>15192.994799979999</v>
+      </c>
+      <c r="AF22" s="240">
+        <f t="shared" ref="AF22:AF30" si="10">K22*$N22</f>
+        <v>26511.065727403911</v>
+      </c>
+      <c r="AG22" s="240">
+        <f t="shared" ref="AG22:AG30" si="11">L22*$N22</f>
+        <v>45455.446366080279</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C23" s="240">
+        <v>2009</v>
+      </c>
+      <c r="D23" s="239">
+        <v>7256.6568136614442</v>
+      </c>
+      <c r="E23" s="243">
+        <v>0.40667545439649394</v>
+      </c>
+      <c r="F23" s="243">
+        <v>0.18833152132956058</v>
+      </c>
+      <c r="G23" s="239">
+        <f t="shared" ref="G23:G31" si="12">D23*F23</f>
+        <v>1366.6572174833814</v>
+      </c>
+      <c r="H23" s="239">
+        <v>2951.1042070951817</v>
+      </c>
+      <c r="I23" s="239">
+        <f t="shared" ref="I23:I31" si="13">H23-G23</f>
+        <v>1584.4469896118003</v>
+      </c>
+      <c r="J23" s="239">
+        <v>14880.323693456758</v>
+      </c>
+      <c r="K23" s="239">
+        <f t="shared" si="0"/>
+        <v>23784.589324368004</v>
+      </c>
+      <c r="L23" s="239">
+        <f t="shared" si="6"/>
+        <v>40249.36000743656</v>
+      </c>
+      <c r="M23" s="239">
+        <f>L23*N23</f>
+        <v>27574.239217618146</v>
+      </c>
+      <c r="N23" s="239">
+        <v>0.685085159429205</v>
+      </c>
+      <c r="O23" s="239">
+        <v>2110.2163482000001</v>
+      </c>
+      <c r="P23" s="234">
+        <v>7.02</v>
+      </c>
+      <c r="Q23" s="234">
+        <v>14.741705493913877</v>
+      </c>
+      <c r="R23" s="239">
+        <f t="shared" si="3"/>
+        <v>14813.718764363999</v>
+      </c>
+      <c r="S23" s="239">
+        <f t="shared" si="1"/>
+        <v>31108.18793360682</v>
+      </c>
+      <c r="T23" s="239"/>
+      <c r="U23" s="239">
+        <f t="shared" ref="U23:U31" si="14">M23/Q23</f>
+        <v>1870.4917981845581</v>
+      </c>
+      <c r="V23" s="239">
+        <v>64910.313341109897</v>
+      </c>
+      <c r="X23" s="241">
+        <f t="shared" si="7"/>
+        <v>2.4409788029914139E-2</v>
+      </c>
+      <c r="Y23" s="241">
+        <f t="shared" si="4"/>
+        <v>0.22924436699695525</v>
+      </c>
+      <c r="Z23" s="241">
+        <f t="shared" si="2"/>
+        <v>0.36642234646715871</v>
+      </c>
+      <c r="AD23" s="240">
+        <f t="shared" si="8"/>
+        <v>1085.481118485324</v>
+      </c>
+      <c r="AE23" s="240">
+        <f t="shared" si="9"/>
+        <v>10194.288929889999</v>
+      </c>
+      <c r="AF23" s="240">
+        <f t="shared" si="10"/>
+        <v>16294.46916924282</v>
+      </c>
+      <c r="AG23" s="240">
+        <f t="shared" si="11"/>
+        <v>27574.239217618146</v>
+      </c>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C24" s="240">
+        <v>2010</v>
+      </c>
+      <c r="D24" s="239">
+        <v>5916.0389508857179</v>
+      </c>
+      <c r="E24" s="243">
+        <v>0.92480673087746601</v>
+      </c>
+      <c r="F24" s="243">
+        <v>0.21231912360993724</v>
+      </c>
+      <c r="G24" s="239">
+        <f t="shared" si="12"/>
+        <v>1256.0882052943082</v>
+      </c>
+      <c r="H24" s="239">
+        <v>5471.1926419123747</v>
+      </c>
+      <c r="I24" s="239">
+        <f t="shared" si="13"/>
+        <v>4215.1044366180668</v>
+      </c>
+      <c r="J24" s="239">
+        <v>18393.805265508967</v>
+      </c>
+      <c r="K24" s="239">
+        <f t="shared" si="0"/>
+        <v>37633.063913314909</v>
+      </c>
+      <c r="L24" s="239">
+        <f t="shared" si="6"/>
+        <v>60241.973615441944</v>
+      </c>
+      <c r="M24" s="239">
+        <f t="shared" ref="M24:M31" si="15">L24*N24</f>
+        <v>42303.301091073372</v>
+      </c>
+      <c r="N24" s="239">
+        <v>0.70222302743796039</v>
+      </c>
+      <c r="O24" s="239">
+        <v>2987.2512404299996</v>
+      </c>
+      <c r="P24" s="234">
+        <v>7.0166666666666604</v>
+      </c>
+      <c r="Q24" s="234">
+        <v>15.863195447141866</v>
+      </c>
+      <c r="R24" s="239">
+        <f>O24*P24</f>
+        <v>20960.546203683811</v>
+      </c>
+      <c r="S24" s="239">
+        <f t="shared" si="1"/>
+        <v>47387.350276658064</v>
+      </c>
+      <c r="T24" s="239"/>
+      <c r="U24" s="239">
+        <f t="shared" si="14"/>
+        <v>2666.7578567025298</v>
+      </c>
+      <c r="V24" s="239">
+        <v>71240.900713297044</v>
+      </c>
+      <c r="X24" s="241">
+        <f t="shared" si="7"/>
+        <v>5.9166916678684296E-2</v>
+      </c>
+      <c r="Y24" s="241">
+        <f t="shared" si="4"/>
+        <v>0.25819164386387078</v>
+      </c>
+      <c r="Z24" s="241">
+        <f t="shared" si="2"/>
+        <v>0.52825081570439403</v>
+      </c>
+      <c r="AD24" s="240">
+        <f t="shared" si="8"/>
+        <v>2959.9433984491175</v>
+      </c>
+      <c r="AE24" s="240">
+        <f t="shared" si="9"/>
+        <v>12916.553619650003</v>
+      </c>
+      <c r="AF24" s="240">
+        <f t="shared" si="10"/>
+        <v>26426.804072974253</v>
+      </c>
+      <c r="AG24" s="240">
+        <f t="shared" si="11"/>
+        <v>42303.301091073372</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C25" s="240">
+        <v>2011</v>
+      </c>
+      <c r="D25" s="239">
+        <v>4235.1995201546288</v>
+      </c>
+      <c r="E25" s="243">
+        <v>1.290235373932483</v>
+      </c>
+      <c r="F25" s="243">
+        <v>0.252048195268609</v>
+      </c>
+      <c r="G25" s="239">
+        <f t="shared" si="12"/>
+        <v>1067.474395657453</v>
+      </c>
+      <c r="H25" s="239">
+        <v>5464.4042365653804</v>
+      </c>
+      <c r="I25" s="239">
+        <f t="shared" si="13"/>
+        <v>4396.9298409079274</v>
+      </c>
+      <c r="J25" s="239">
+        <v>19321.741231647498</v>
+      </c>
+      <c r="K25" s="239">
+        <f t="shared" si="0"/>
+        <v>52437.569952851423</v>
+      </c>
+      <c r="L25" s="239">
+        <f t="shared" si="6"/>
+        <v>76156.241025406853</v>
+      </c>
+      <c r="M25" s="239">
+        <f t="shared" si="15"/>
+        <v>58763.963507078362</v>
+      </c>
+      <c r="N25" s="239">
+        <v>0.77162373977299947</v>
+      </c>
+      <c r="O25" s="239">
+        <v>4114.4856505299995</v>
+      </c>
+      <c r="P25" s="234">
+        <v>6.9369624999999999</v>
+      </c>
+      <c r="Q25" s="234">
+        <v>16.771016442177544</v>
+      </c>
+      <c r="R25" s="239">
+        <f t="shared" si="3"/>
+        <v>28542.032664514711</v>
+      </c>
+      <c r="S25" s="239">
+        <f t="shared" si="1"/>
+        <v>69004.106496142194</v>
+      </c>
+      <c r="T25" s="239"/>
+      <c r="U25" s="239">
+        <f>M25/Q25</f>
+        <v>3503.8999400950124</v>
+      </c>
+      <c r="V25" s="239">
+        <v>91770.008204538288</v>
+      </c>
+      <c r="X25" s="241">
+        <f t="shared" si="7"/>
+        <v>4.7912492620769832E-2</v>
+      </c>
+      <c r="Y25" s="241">
+        <f t="shared" si="4"/>
+        <v>0.21054527083165264</v>
+      </c>
+      <c r="Z25" s="241">
+        <f t="shared" si="2"/>
+        <v>0.57140204058800814</v>
+      </c>
+      <c r="AD25" s="240">
+        <f t="shared" si="8"/>
+        <v>3392.7754473608748</v>
+      </c>
+      <c r="AE25" s="240">
+        <f t="shared" si="9"/>
+        <v>14909.114228090004</v>
+      </c>
+      <c r="AF25" s="240">
+        <f t="shared" si="10"/>
+        <v>40462.07383162748</v>
+      </c>
+      <c r="AG25" s="240">
+        <f t="shared" si="11"/>
+        <v>58763.963507078362</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C26" s="240">
+        <v>2012</v>
+      </c>
+      <c r="D26" s="239">
+        <v>9028.0059632138436</v>
+      </c>
+      <c r="E26" s="243">
+        <v>0.82616964229268064</v>
+      </c>
+      <c r="F26" s="243">
+        <v>0.26499635759052875</v>
+      </c>
+      <c r="G26" s="239">
+        <f>D26*F26</f>
+        <v>2392.3886965572415</v>
+      </c>
+      <c r="H26" s="239">
+        <v>7458.6644572445693</v>
+      </c>
+      <c r="I26" s="239">
+        <f t="shared" si="13"/>
+        <v>5066.2757606873274</v>
+      </c>
+      <c r="J26" s="239">
+        <v>8028.3930113859305</v>
+      </c>
+      <c r="K26" s="239">
+        <f t="shared" si="0"/>
+        <v>73397.391111777659</v>
+      </c>
+      <c r="L26" s="239">
+        <f t="shared" si="6"/>
+        <v>86492.059883850918</v>
+      </c>
+      <c r="M26" s="239">
+        <f t="shared" si="15"/>
+        <v>69755.151680871611</v>
+      </c>
+      <c r="N26" s="239">
+        <v>0.80649196902634668</v>
+      </c>
+      <c r="O26" s="239">
+        <v>5871.6829368600002</v>
+      </c>
+      <c r="P26" s="234">
+        <v>6.91</v>
+      </c>
+      <c r="Q26" s="234">
+        <v>16.99133564357442</v>
+      </c>
+      <c r="R26" s="239">
+        <f t="shared" si="3"/>
+        <v>40573.329093702603</v>
+      </c>
+      <c r="S26" s="239">
+        <f t="shared" si="1"/>
+        <v>99767.735572837046</v>
+      </c>
+      <c r="T26" s="239"/>
+      <c r="U26" s="239">
+        <f t="shared" si="14"/>
+        <v>4105.3365753062963</v>
+      </c>
+      <c r="V26" s="239">
+        <v>102575.11842716481</v>
+      </c>
+      <c r="X26" s="241">
+        <f t="shared" si="7"/>
+        <v>4.939088385537397E-2</v>
+      </c>
+      <c r="Y26" s="241">
+        <f t="shared" si="4"/>
+        <v>7.8268425467006658E-2</v>
+      </c>
+      <c r="Z26" s="241">
+        <f t="shared" si="2"/>
+        <v>0.71554771017783136</v>
+      </c>
+      <c r="AD26" s="240">
+        <f t="shared" si="8"/>
+        <v>4085.9107138671752</v>
+      </c>
+      <c r="AE26" s="240">
+        <f t="shared" si="9"/>
+        <v>6474.83448787</v>
+      </c>
+      <c r="AF26" s="240">
+        <f t="shared" si="10"/>
+        <v>59194.406479134443</v>
+      </c>
+      <c r="AG26" s="240">
+        <f t="shared" si="11"/>
+        <v>69755.151680871611</v>
+      </c>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C27" s="240">
+        <v>2013</v>
+      </c>
+      <c r="D27" s="239">
+        <v>8097.3275770804712</v>
+      </c>
+      <c r="E27" s="243">
+        <v>0.92953394887166785</v>
+      </c>
+      <c r="F27" s="243">
+        <v>0.16524446604520623</v>
+      </c>
+      <c r="G27" s="239">
+        <f t="shared" si="12"/>
+        <v>1338.038571867786</v>
+      </c>
+      <c r="H27" s="239">
+        <v>7526.7408780310652</v>
+      </c>
+      <c r="I27" s="239">
+        <f t="shared" si="13"/>
+        <v>6188.702306163279</v>
+      </c>
+      <c r="J27" s="239">
+        <v>8089.4380883111453</v>
+      </c>
+      <c r="K27" s="239">
+        <f t="shared" si="0"/>
+        <v>82650.391328362428</v>
+      </c>
+      <c r="L27" s="239">
+        <f t="shared" si="6"/>
+        <v>96928.531722836851</v>
+      </c>
+      <c r="M27" s="239">
+        <f t="shared" si="15"/>
+        <v>82631.452647713624</v>
+      </c>
+      <c r="N27" s="239">
+        <v>0.85249875530968389</v>
+      </c>
+      <c r="O27" s="239">
+        <v>6630.4629742500019</v>
+      </c>
+      <c r="P27" s="234">
+        <v>6.91</v>
+      </c>
+      <c r="Q27" s="234">
+        <v>17.536611747463564</v>
+      </c>
+      <c r="R27" s="239">
+        <f>O27*P27</f>
+        <v>45816.499152067518</v>
+      </c>
+      <c r="S27" s="239">
+        <f>O27*Q27</f>
+        <v>116275.85488535478</v>
+      </c>
+      <c r="T27" s="239"/>
+      <c r="U27" s="239">
+        <f t="shared" si="14"/>
+        <v>4711.939446322358</v>
+      </c>
+      <c r="V27" s="239">
+        <v>69534.307063696164</v>
+      </c>
+      <c r="X27" s="241">
+        <f t="shared" si="7"/>
+        <v>8.9002142503472187E-2</v>
+      </c>
+      <c r="Y27" s="241">
+        <f t="shared" si="4"/>
+        <v>0.11633736539433551</v>
+      </c>
+      <c r="Z27" s="241">
+        <v>0.79</v>
+      </c>
+      <c r="AD27" s="240">
+        <f t="shared" si="8"/>
+        <v>5275.8610129863655</v>
+      </c>
+      <c r="AE27" s="240">
+        <f t="shared" si="9"/>
+        <v>6896.2359014399999</v>
+      </c>
+      <c r="AF27" s="240">
+        <f t="shared" si="10"/>
+        <v>70459.355733287259</v>
+      </c>
+      <c r="AG27" s="240">
+        <f t="shared" si="11"/>
+        <v>82631.452647713624</v>
+      </c>
+    </row>
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C28" s="240">
+        <v>2014</v>
+      </c>
+      <c r="D28" s="239">
+        <v>10381.143819929966</v>
+      </c>
+      <c r="E28" s="243">
+        <v>0.72292549356686653</v>
+      </c>
+      <c r="F28" s="243">
+        <v>0.12466426734941237</v>
+      </c>
+      <c r="G28" s="239">
+        <f t="shared" si="12"/>
+        <v>1294.1576885604493</v>
+      </c>
+      <c r="H28" s="239">
+        <v>7504.7935198114974</v>
+      </c>
+      <c r="I28" s="239">
+        <f t="shared" si="13"/>
+        <v>6210.6358312510483</v>
+      </c>
+      <c r="J28" s="239">
+        <v>8021.4288666361381</v>
+      </c>
+      <c r="K28" s="239">
+        <f t="shared" si="0"/>
+        <v>85491.934985687549</v>
+      </c>
+      <c r="L28" s="239">
+        <f t="shared" si="6"/>
+        <v>99723.99968357473</v>
+      </c>
+      <c r="M28" s="239">
+        <f t="shared" si="15"/>
+        <v>89916.579832372314</v>
+      </c>
+      <c r="N28" s="239">
+        <v>0.90165436723034109</v>
+      </c>
+      <c r="O28" s="239">
+        <v>6623.59648887</v>
+      </c>
+      <c r="P28" s="234">
+        <v>6.91</v>
+      </c>
+      <c r="Q28" s="234">
+        <v>18.547812881920937</v>
+      </c>
+      <c r="R28" s="239">
+        <f t="shared" si="3"/>
+        <v>45769.051738091701</v>
+      </c>
+      <c r="S28" s="239">
+        <f t="shared" si="1"/>
+        <v>122853.22828090927</v>
+      </c>
+      <c r="T28" s="239"/>
+      <c r="U28" s="239">
+        <f t="shared" si="14"/>
+        <v>4847.826555335615</v>
+      </c>
+      <c r="V28" s="239">
+        <v>57043.429947081968</v>
+      </c>
+      <c r="X28" s="241">
+        <f t="shared" si="7"/>
+        <v>0.10887556791400042</v>
+      </c>
+      <c r="Y28" s="241">
+        <f t="shared" si="4"/>
+        <v>0.14061968002410541</v>
+      </c>
+      <c r="Z28" s="241">
+        <v>0.77</v>
+      </c>
+      <c r="AD28" s="240">
+        <f t="shared" si="8"/>
+        <v>5599.8469205247475</v>
+      </c>
+      <c r="AE28" s="240">
+        <f t="shared" si="9"/>
+        <v>7232.5563690299996</v>
+      </c>
+      <c r="AF28" s="240">
+        <f t="shared" si="10"/>
+        <v>77084.176542817571</v>
+      </c>
+      <c r="AG28" s="240">
+        <f t="shared" si="11"/>
+        <v>89916.579832372314</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C29" s="240">
+        <v>2015</v>
+      </c>
+      <c r="D29" s="239">
+        <v>12258.066291234572</v>
+      </c>
+      <c r="E29" s="243">
+        <v>0.11395720978195388</v>
+      </c>
+      <c r="F29" s="243">
+        <v>0.14223204322758753</v>
+      </c>
+      <c r="G29" s="239">
+        <f t="shared" si="12"/>
+        <v>1743.4898146215094</v>
+      </c>
+      <c r="H29" s="239">
+        <v>1396.8950318713155</v>
+      </c>
+      <c r="I29" s="239">
+        <f t="shared" si="13"/>
+        <v>-346.59478275019387</v>
+      </c>
+      <c r="J29" s="239">
+        <v>1836.5925607437048</v>
+      </c>
+      <c r="K29" s="239">
+        <f t="shared" si="0"/>
+        <v>49951.722341777699</v>
+      </c>
+      <c r="L29" s="239">
+        <f t="shared" si="6"/>
+        <v>51441.720119771213</v>
+      </c>
+      <c r="M29" s="239">
+        <f t="shared" si="15"/>
+        <v>48279.535886051359</v>
+      </c>
+      <c r="N29" s="239">
+        <v>0.93852880062413591</v>
+      </c>
+      <c r="O29" s="239">
+        <v>3986.0022575499997</v>
+      </c>
+      <c r="P29" s="234">
+        <v>6.91</v>
+      </c>
+      <c r="Q29" s="234">
+        <v>18.671440919843835</v>
+      </c>
+      <c r="R29" s="239">
+        <f t="shared" si="3"/>
+        <v>27543.275599670498</v>
+      </c>
+      <c r="S29" s="239">
+        <f t="shared" si="1"/>
+        <v>74424.405658208969</v>
+      </c>
+      <c r="T29" s="239"/>
+      <c r="U29" s="239">
+        <f t="shared" si="14"/>
+        <v>2585.7423694997374</v>
+      </c>
+      <c r="V29" s="239">
+        <v>70620.252403817882</v>
+      </c>
+      <c r="X29" s="241">
+        <f t="shared" si="7"/>
+        <v>-4.9078666664671422E-3</v>
+      </c>
+      <c r="Y29" s="241">
+        <f t="shared" si="4"/>
+        <v>2.6006598648809342E-2</v>
+      </c>
+      <c r="Z29" s="241">
+        <f>K29/$V29</f>
+        <v>0.707328572774645</v>
+      </c>
+      <c r="AD29" s="240">
+        <f t="shared" si="8"/>
+        <v>-325.28918575712243</v>
+      </c>
+      <c r="AE29" s="240">
+        <f t="shared" si="9"/>
+        <v>1723.6950132699997</v>
+      </c>
+      <c r="AF29" s="240">
+        <f t="shared" si="10"/>
+        <v>46881.130058538474</v>
+      </c>
+      <c r="AG29" s="240">
+        <f t="shared" si="11"/>
+        <v>48279.535886051359</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C30" s="240">
+        <v>2016</v>
+      </c>
+      <c r="D30" s="239">
+        <v>17210.207668925155</v>
+      </c>
+      <c r="E30" s="243">
+        <v>1.51925314650863E-2</v>
+      </c>
+      <c r="F30" s="243">
+        <v>0.12495576122119316</v>
+      </c>
+      <c r="G30" s="239">
+        <f t="shared" si="12"/>
+        <v>2150.5146000453592</v>
+      </c>
+      <c r="H30" s="239">
+        <v>261.46662153081496</v>
+      </c>
+      <c r="I30" s="239">
+        <f t="shared" si="13"/>
+        <v>-1889.0479785145442</v>
+      </c>
+      <c r="J30" s="239">
+        <v>698.85376425410664</v>
+      </c>
+      <c r="K30" s="239">
+        <f t="shared" si="0"/>
+        <v>27372.23732829011</v>
+      </c>
+      <c r="L30" s="239">
+        <f t="shared" si="6"/>
+        <v>26182.043114029671</v>
+      </c>
+      <c r="M30" s="239">
+        <f t="shared" si="15"/>
+        <v>25463.36708301929</v>
+      </c>
+      <c r="N30" s="239">
+        <v>0.97255080408047767</v>
+      </c>
+      <c r="O30" s="239">
+        <v>2152.8572740099999</v>
+      </c>
+      <c r="P30" s="234">
+        <v>6.91</v>
+      </c>
+      <c r="Q30" s="234">
+        <v>19.275376815493697</v>
+      </c>
+      <c r="R30" s="239">
+        <f t="shared" si="3"/>
+        <v>14876.2437634091</v>
+      </c>
+      <c r="S30" s="239">
+        <f t="shared" si="1"/>
+        <v>41497.135186519314</v>
+      </c>
+      <c r="T30" s="239"/>
+      <c r="U30" s="239">
+        <f t="shared" si="14"/>
+        <v>1321.0308325880114</v>
+      </c>
+      <c r="V30" s="239">
+        <v>61469.405338802135</v>
+      </c>
+      <c r="X30" s="241">
+        <f t="shared" si="7"/>
+        <v>-3.0731515427921276E-2</v>
+      </c>
+      <c r="Y30" s="241">
+        <f t="shared" si="4"/>
+        <v>1.1369131690834172E-2</v>
+      </c>
+      <c r="Z30" s="241">
+        <f>K30/$V30</f>
+        <v>0.44529855425511289</v>
+      </c>
+      <c r="AD30" s="240">
+        <f t="shared" si="8"/>
+        <v>-1837.1951304509209</v>
+      </c>
+      <c r="AE30" s="240">
+        <f t="shared" si="9"/>
+        <v>679.67079035999996</v>
+      </c>
+      <c r="AF30" s="240">
+        <f t="shared" si="10"/>
+        <v>26620.891423110214</v>
+      </c>
+      <c r="AG30" s="240">
+        <f t="shared" si="11"/>
+        <v>25463.36708301929</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C31" s="240">
+        <v>2017</v>
+      </c>
+      <c r="D31" s="239">
+        <v>19078.435501889013</v>
+      </c>
+      <c r="E31" s="243">
+        <v>1.780449674798372E-2</v>
+      </c>
+      <c r="F31" s="243">
+        <v>0.1745388120024908</v>
+      </c>
+      <c r="G31" s="239">
+        <f t="shared" si="12"/>
+        <v>3329.9274673658524</v>
+      </c>
+      <c r="H31" s="239">
+        <v>339.68194285000004</v>
+      </c>
+      <c r="I31" s="239">
+        <f t="shared" si="13"/>
+        <v>-2990.2455245158526</v>
+      </c>
+      <c r="J31" s="239">
+        <v>855.56036724000001</v>
+      </c>
+      <c r="K31" s="239">
+        <f t="shared" si="0"/>
+        <v>35199.732111424193</v>
+      </c>
+      <c r="L31" s="239">
+        <f>I31+J31+K31</f>
+        <v>33065.04695414834</v>
+      </c>
+      <c r="M31" s="239">
+        <f t="shared" si="15"/>
+        <v>33065.04695414834</v>
+      </c>
+      <c r="N31" s="239">
+        <v>1</v>
+      </c>
+      <c r="O31" s="239">
+        <v>2678.8228395299993</v>
+      </c>
+      <c r="P31" s="234">
+        <v>6.86</v>
+      </c>
+      <c r="Q31" s="234">
+        <v>20</v>
+      </c>
+      <c r="R31" s="239">
+        <f t="shared" si="3"/>
+        <v>18376.724679175797</v>
+      </c>
+      <c r="S31" s="239">
+        <f>O31*Q31</f>
+        <v>53576.456790599987</v>
+      </c>
+      <c r="T31" s="239"/>
+      <c r="U31" s="239">
+        <f t="shared" si="14"/>
+        <v>1653.2523477074169</v>
+      </c>
+      <c r="V31" s="239">
+        <v>86372.005102225026</v>
+      </c>
+      <c r="X31" s="241">
+        <f t="shared" si="7"/>
+        <v>-3.4620540775645615E-2</v>
+      </c>
+      <c r="Y31" s="241">
+        <f t="shared" si="4"/>
+        <v>9.9055286053323314E-3</v>
+      </c>
+      <c r="Z31" s="241">
+        <f>K31/$V31</f>
+        <v>0.40753635474554262</v>
+      </c>
+      <c r="AD31" s="240">
+        <f t="shared" ref="AD31:AD32" si="16">G32*$N32</f>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="240">
+        <f t="shared" ref="AE31:AG32" si="17">H32*$N32</f>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="240">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="240">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C32" s="240">
+        <v>2018</v>
+      </c>
+      <c r="D32" s="239"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="239"/>
+      <c r="G32" s="239"/>
+      <c r="H32" s="239"/>
+      <c r="I32" s="239"/>
+      <c r="N32" s="240">
+        <v>1.0227163263466399</v>
+      </c>
+      <c r="V32" s="239">
+        <v>97130.63591389863</v>
+      </c>
+      <c r="AD32" s="240">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="240">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="240">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="240">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D33" s="239"/>
+      <c r="E33" s="239"/>
+      <c r="F33" s="239"/>
+      <c r="G33" s="239"/>
+      <c r="H33" s="239"/>
+      <c r="I33" s="239"/>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D34" s="239"/>
+      <c r="E34" s="239"/>
+      <c r="F34" s="239"/>
+      <c r="G34" s="239"/>
+      <c r="H34" s="239"/>
+      <c r="I34" s="239"/>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D35" s="239"/>
+      <c r="E35" s="239"/>
+      <c r="F35" s="239"/>
+      <c r="G35" s="239"/>
+      <c r="H35" s="239"/>
+      <c r="I35" s="239"/>
+      <c r="J35" s="240">
+        <f>J21/J22-1</f>
+        <v>-0.43575535319633718</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -46337,7 +52256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
@@ -46362,11 +52281,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="241" t="s">
+      <c r="B1" s="245" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="185" t="s">
@@ -47441,2184 +53360,4 @@
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AG8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM24" sqref="AM24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.28515625" customWidth="1"/>
-    <col min="282" max="282" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="13.28515625" customWidth="1"/>
-    <col min="538" max="538" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="542" max="542" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="544" max="544" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="554" max="554" width="13.28515625" customWidth="1"/>
-    <col min="794" max="794" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="798" max="798" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="800" max="800" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="810" max="810" width="13.28515625" customWidth="1"/>
-    <col min="1050" max="1050" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="1054" max="1054" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="1056" max="1056" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="1066" max="1066" width="13.28515625" customWidth="1"/>
-    <col min="1306" max="1306" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="1310" max="1310" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="1312" max="1312" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="1322" max="1322" width="13.28515625" customWidth="1"/>
-    <col min="1562" max="1562" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="1566" max="1566" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="1568" max="1568" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="1578" max="1578" width="13.28515625" customWidth="1"/>
-    <col min="1818" max="1818" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="1822" max="1822" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="1824" max="1824" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="1834" max="1834" width="13.28515625" customWidth="1"/>
-    <col min="2074" max="2074" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2078" max="2078" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2080" max="2080" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2090" max="2090" width="13.28515625" customWidth="1"/>
-    <col min="2330" max="2330" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2334" max="2334" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2336" max="2336" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2346" max="2346" width="13.28515625" customWidth="1"/>
-    <col min="2586" max="2586" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2590" max="2590" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2592" max="2592" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2602" max="2602" width="13.28515625" customWidth="1"/>
-    <col min="2842" max="2842" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2846" max="2846" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2848" max="2848" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2858" max="2858" width="13.28515625" customWidth="1"/>
-    <col min="3098" max="3098" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3102" max="3102" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3104" max="3104" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3114" max="3114" width="13.28515625" customWidth="1"/>
-    <col min="3354" max="3354" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3358" max="3358" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3360" max="3360" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3370" max="3370" width="13.28515625" customWidth="1"/>
-    <col min="3610" max="3610" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3614" max="3614" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3616" max="3616" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3626" max="3626" width="13.28515625" customWidth="1"/>
-    <col min="3866" max="3866" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3870" max="3870" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3872" max="3872" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3882" max="3882" width="13.28515625" customWidth="1"/>
-    <col min="4122" max="4122" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4126" max="4126" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4128" max="4128" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4138" max="4138" width="13.28515625" customWidth="1"/>
-    <col min="4378" max="4378" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4382" max="4382" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4384" max="4384" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4394" max="4394" width="13.28515625" customWidth="1"/>
-    <col min="4634" max="4634" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4638" max="4638" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4640" max="4640" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4650" max="4650" width="13.28515625" customWidth="1"/>
-    <col min="4890" max="4890" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4894" max="4894" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4896" max="4896" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4906" max="4906" width="13.28515625" customWidth="1"/>
-    <col min="5146" max="5146" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5150" max="5150" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5152" max="5152" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5162" max="5162" width="13.28515625" customWidth="1"/>
-    <col min="5402" max="5402" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5406" max="5406" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5408" max="5408" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5418" max="5418" width="13.28515625" customWidth="1"/>
-    <col min="5658" max="5658" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5662" max="5662" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5664" max="5664" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5674" max="5674" width="13.28515625" customWidth="1"/>
-    <col min="5914" max="5914" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5918" max="5918" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5920" max="5920" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5930" max="5930" width="13.28515625" customWidth="1"/>
-    <col min="6170" max="6170" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6174" max="6174" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6176" max="6176" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6186" max="6186" width="13.28515625" customWidth="1"/>
-    <col min="6426" max="6426" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6430" max="6430" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6432" max="6432" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6442" max="6442" width="13.28515625" customWidth="1"/>
-    <col min="6682" max="6682" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6686" max="6686" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6688" max="6688" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6698" max="6698" width="13.28515625" customWidth="1"/>
-    <col min="6938" max="6938" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6942" max="6942" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6944" max="6944" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6954" max="6954" width="13.28515625" customWidth="1"/>
-    <col min="7194" max="7194" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7198" max="7198" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7200" max="7200" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7210" max="7210" width="13.28515625" customWidth="1"/>
-    <col min="7450" max="7450" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7454" max="7454" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7456" max="7456" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7466" max="7466" width="13.28515625" customWidth="1"/>
-    <col min="7706" max="7706" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7710" max="7710" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7712" max="7712" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7722" max="7722" width="13.28515625" customWidth="1"/>
-    <col min="7962" max="7962" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7966" max="7966" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7968" max="7968" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7978" max="7978" width="13.28515625" customWidth="1"/>
-    <col min="8218" max="8218" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8222" max="8222" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8224" max="8224" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8234" max="8234" width="13.28515625" customWidth="1"/>
-    <col min="8474" max="8474" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8478" max="8478" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8480" max="8480" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8490" max="8490" width="13.28515625" customWidth="1"/>
-    <col min="8730" max="8730" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8734" max="8734" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8736" max="8736" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8746" max="8746" width="13.28515625" customWidth="1"/>
-    <col min="8986" max="8986" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8990" max="8990" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8992" max="8992" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9002" max="9002" width="13.28515625" customWidth="1"/>
-    <col min="9242" max="9242" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9246" max="9246" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9248" max="9248" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9258" max="9258" width="13.28515625" customWidth="1"/>
-    <col min="9498" max="9498" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9502" max="9502" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9504" max="9504" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9514" max="9514" width="13.28515625" customWidth="1"/>
-    <col min="9754" max="9754" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9758" max="9758" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9760" max="9760" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9770" max="9770" width="13.28515625" customWidth="1"/>
-    <col min="10010" max="10010" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10014" max="10014" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10016" max="10016" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10026" max="10026" width="13.28515625" customWidth="1"/>
-    <col min="10266" max="10266" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10270" max="10270" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10272" max="10272" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10282" max="10282" width="13.28515625" customWidth="1"/>
-    <col min="10522" max="10522" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10526" max="10526" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10528" max="10528" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10538" max="10538" width="13.28515625" customWidth="1"/>
-    <col min="10778" max="10778" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10782" max="10782" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10784" max="10784" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10794" max="10794" width="13.28515625" customWidth="1"/>
-    <col min="11034" max="11034" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11038" max="11038" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11040" max="11040" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11050" max="11050" width="13.28515625" customWidth="1"/>
-    <col min="11290" max="11290" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11294" max="11294" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11296" max="11296" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11306" max="11306" width="13.28515625" customWidth="1"/>
-    <col min="11546" max="11546" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11550" max="11550" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11552" max="11552" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11562" max="11562" width="13.28515625" customWidth="1"/>
-    <col min="11802" max="11802" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11806" max="11806" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11808" max="11808" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11818" max="11818" width="13.28515625" customWidth="1"/>
-    <col min="12058" max="12058" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12062" max="12062" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12064" max="12064" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12074" max="12074" width="13.28515625" customWidth="1"/>
-    <col min="12314" max="12314" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12318" max="12318" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12320" max="12320" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12330" max="12330" width="13.28515625" customWidth="1"/>
-    <col min="12570" max="12570" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12574" max="12574" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12576" max="12576" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12586" max="12586" width="13.28515625" customWidth="1"/>
-    <col min="12826" max="12826" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12830" max="12830" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12832" max="12832" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12842" max="12842" width="13.28515625" customWidth="1"/>
-    <col min="13082" max="13082" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13086" max="13086" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13088" max="13088" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13098" max="13098" width="13.28515625" customWidth="1"/>
-    <col min="13338" max="13338" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13342" max="13342" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13344" max="13344" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13354" max="13354" width="13.28515625" customWidth="1"/>
-    <col min="13594" max="13594" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13598" max="13598" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13600" max="13600" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13610" max="13610" width="13.28515625" customWidth="1"/>
-    <col min="13850" max="13850" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13854" max="13854" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13856" max="13856" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13866" max="13866" width="13.28515625" customWidth="1"/>
-    <col min="14106" max="14106" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14110" max="14110" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14112" max="14112" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14122" max="14122" width="13.28515625" customWidth="1"/>
-    <col min="14362" max="14362" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14366" max="14366" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14368" max="14368" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14378" max="14378" width="13.28515625" customWidth="1"/>
-    <col min="14618" max="14618" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14622" max="14622" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14624" max="14624" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14634" max="14634" width="13.28515625" customWidth="1"/>
-    <col min="14874" max="14874" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14878" max="14878" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14880" max="14880" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14890" max="14890" width="13.28515625" customWidth="1"/>
-    <col min="15130" max="15130" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15134" max="15134" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15136" max="15136" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15146" max="15146" width="13.28515625" customWidth="1"/>
-    <col min="15386" max="15386" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15390" max="15390" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15392" max="15392" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15402" max="15402" width="13.28515625" customWidth="1"/>
-    <col min="15642" max="15642" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15646" max="15646" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15648" max="15648" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15658" max="15658" width="13.28515625" customWidth="1"/>
-    <col min="15898" max="15898" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15902" max="15902" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="15904" max="15904" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15914" max="15914" width="13.28515625" customWidth="1"/>
-    <col min="16154" max="16154" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16158" max="16158" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16160" max="16160" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="16170" max="16170" width="13.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F1" t="s">
-        <v>511</v>
-      </c>
-      <c r="G1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I1" t="s">
-        <v>514</v>
-      </c>
-      <c r="J1" t="s">
-        <v>515</v>
-      </c>
-      <c r="K1" t="s">
-        <v>516</v>
-      </c>
-      <c r="L1" t="s">
-        <v>517</v>
-      </c>
-      <c r="M1" t="s">
-        <v>518</v>
-      </c>
-      <c r="N1" t="s">
-        <v>519</v>
-      </c>
-      <c r="O1" t="s">
-        <v>520</v>
-      </c>
-      <c r="P1" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>522</v>
-      </c>
-      <c r="R1" t="s">
-        <v>523</v>
-      </c>
-      <c r="S1" t="s">
-        <v>524</v>
-      </c>
-      <c r="T1" t="s">
-        <v>525</v>
-      </c>
-      <c r="U1" t="s">
-        <v>526</v>
-      </c>
-      <c r="V1" t="s">
-        <v>527</v>
-      </c>
-      <c r="W1" t="s">
-        <v>528</v>
-      </c>
-      <c r="X1" t="s">
-        <v>529</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>530</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>532</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>533</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>534</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>535</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>536</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>537</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>538</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>539</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>540</v>
-      </c>
-      <c r="AM1" s="209">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="209" t="s">
-        <v>541</v>
-      </c>
-      <c r="AO1" s="235">
-        <v>3.9652608749182999E-2</v>
-      </c>
-      <c r="AP1" s="209" t="s">
-        <v>542</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B2">
-        <v>1999</v>
-      </c>
-      <c r="C2">
-        <v>1999</v>
-      </c>
-      <c r="D2">
-        <v>1999</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>545</v>
-      </c>
-      <c r="I2">
-        <v>68</v>
-      </c>
-      <c r="J2" t="s">
-        <v>546</v>
-      </c>
-      <c r="K2" t="s">
-        <v>547</v>
-      </c>
-      <c r="L2">
-        <v>76</v>
-      </c>
-      <c r="M2" t="s">
-        <v>548</v>
-      </c>
-      <c r="N2" t="s">
-        <v>549</v>
-      </c>
-      <c r="V2">
-        <v>271121</v>
-      </c>
-      <c r="W2" t="s">
-        <v>550</v>
-      </c>
-      <c r="X2">
-        <v>8</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z2" s="236">
-        <v>532396062</v>
-      </c>
-      <c r="AD2" s="236">
-        <v>532396062</v>
-      </c>
-      <c r="AE2" s="236"/>
-      <c r="AF2" s="236">
-        <v>15115608</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <f>AF2/AD2</f>
-        <v>2.8391660041993325E-2</v>
-      </c>
-      <c r="AP2" s="236">
-        <f>AD2*$AO$1</f>
-        <v>21110892.746091776</v>
-      </c>
-      <c r="AR2">
-        <f>AF2/AP2</f>
-        <v>0.71600989033485229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B3">
-        <v>2000</v>
-      </c>
-      <c r="C3">
-        <v>2000</v>
-      </c>
-      <c r="D3">
-        <v>2000</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>545</v>
-      </c>
-      <c r="I3">
-        <v>68</v>
-      </c>
-      <c r="J3" t="s">
-        <v>546</v>
-      </c>
-      <c r="K3" t="s">
-        <v>547</v>
-      </c>
-      <c r="L3">
-        <v>76</v>
-      </c>
-      <c r="M3" t="s">
-        <v>548</v>
-      </c>
-      <c r="N3" t="s">
-        <v>549</v>
-      </c>
-      <c r="V3">
-        <v>271121</v>
-      </c>
-      <c r="W3" t="s">
-        <v>550</v>
-      </c>
-      <c r="X3">
-        <v>8</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z3" s="236">
-        <v>2783304994</v>
-      </c>
-      <c r="AD3" s="236">
-        <v>2783304994</v>
-      </c>
-      <c r="AE3" s="236"/>
-      <c r="AF3" s="236">
-        <v>120541117</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <f t="shared" ref="AK3:AK23" si="0">AF3/AD3</f>
-        <v>4.3308626708122813E-2</v>
-      </c>
-      <c r="AP3" s="236">
-        <f t="shared" ref="AP3:AP23" si="1">AD3*$AO$1</f>
-        <v>110365303.95672913</v>
-      </c>
-      <c r="AR3">
-        <f t="shared" ref="AR3:AR23" si="2">AF3/AP3</f>
-        <v>1.0922011961953233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>544</v>
-      </c>
-      <c r="B4">
-        <v>2001</v>
-      </c>
-      <c r="C4">
-        <v>2001</v>
-      </c>
-      <c r="D4">
-        <v>2001</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>545</v>
-      </c>
-      <c r="I4">
-        <v>68</v>
-      </c>
-      <c r="J4" t="s">
-        <v>546</v>
-      </c>
-      <c r="K4" t="s">
-        <v>547</v>
-      </c>
-      <c r="L4">
-        <v>76</v>
-      </c>
-      <c r="M4" t="s">
-        <v>548</v>
-      </c>
-      <c r="N4" t="s">
-        <v>549</v>
-      </c>
-      <c r="V4">
-        <v>271121</v>
-      </c>
-      <c r="W4" t="s">
-        <v>550</v>
-      </c>
-      <c r="X4">
-        <v>8</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z4" s="236">
-        <v>5102229774</v>
-      </c>
-      <c r="AD4" s="236">
-        <v>5102229774</v>
-      </c>
-      <c r="AE4" s="236"/>
-      <c r="AF4" s="236">
-        <v>234752063</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <f t="shared" si="0"/>
-        <v>4.6009700346356847E-2</v>
-      </c>
-      <c r="AP4" s="236">
-        <f t="shared" si="1"/>
-        <v>202316720.97685438</v>
-      </c>
-      <c r="AR4">
-        <f t="shared" si="2"/>
-        <v>1.1603196308566919</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>552</v>
-      </c>
-      <c r="B5">
-        <v>2002</v>
-      </c>
-      <c r="C5">
-        <v>2002</v>
-      </c>
-      <c r="D5">
-        <v>2002</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>545</v>
-      </c>
-      <c r="I5">
-        <v>68</v>
-      </c>
-      <c r="J5" t="s">
-        <v>546</v>
-      </c>
-      <c r="K5" t="s">
-        <v>547</v>
-      </c>
-      <c r="L5">
-        <v>76</v>
-      </c>
-      <c r="M5" t="s">
-        <v>548</v>
-      </c>
-      <c r="N5" t="s">
-        <v>549</v>
-      </c>
-      <c r="V5">
-        <v>271121</v>
-      </c>
-      <c r="W5" t="s">
-        <v>553</v>
-      </c>
-      <c r="X5">
-        <v>8</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z5" s="236">
-        <v>5780401019</v>
-      </c>
-      <c r="AD5" s="236">
-        <v>5780401019</v>
-      </c>
-      <c r="AE5" s="236"/>
-      <c r="AF5" s="236">
-        <v>244098306</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <f t="shared" si="0"/>
-        <v>4.2228610990423743E-2</v>
-      </c>
-      <c r="AP5" s="236">
-        <f t="shared" si="1"/>
-        <v>229207980.01978573</v>
-      </c>
-      <c r="AR5">
-        <f t="shared" si="2"/>
-        <v>1.0649642563881454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>552</v>
-      </c>
-      <c r="B6">
-        <v>2003</v>
-      </c>
-      <c r="C6">
-        <v>2003</v>
-      </c>
-      <c r="D6">
-        <v>2003</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>545</v>
-      </c>
-      <c r="I6">
-        <v>68</v>
-      </c>
-      <c r="J6" t="s">
-        <v>546</v>
-      </c>
-      <c r="K6" t="s">
-        <v>547</v>
-      </c>
-      <c r="L6">
-        <v>76</v>
-      </c>
-      <c r="M6" t="s">
-        <v>548</v>
-      </c>
-      <c r="N6" t="s">
-        <v>549</v>
-      </c>
-      <c r="V6">
-        <v>271121</v>
-      </c>
-      <c r="W6" t="s">
-        <v>553</v>
-      </c>
-      <c r="X6">
-        <v>8</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z6" s="236">
-        <v>7173558305</v>
-      </c>
-      <c r="AD6" s="236">
-        <v>7173558305</v>
-      </c>
-      <c r="AE6" s="236"/>
-      <c r="AF6" s="236">
-        <v>379637840</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <f t="shared" si="0"/>
-        <v>5.2921830960151371E-2</v>
-      </c>
-      <c r="AP6" s="236">
-        <f t="shared" si="1"/>
-        <v>284450300.80761737</v>
-      </c>
-      <c r="AR6">
-        <f t="shared" si="2"/>
-        <v>1.3346368027107869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>552</v>
-      </c>
-      <c r="B7">
-        <v>2004</v>
-      </c>
-      <c r="C7">
-        <v>2004</v>
-      </c>
-      <c r="D7">
-        <v>2004</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>545</v>
-      </c>
-      <c r="I7">
-        <v>68</v>
-      </c>
-      <c r="J7" t="s">
-        <v>546</v>
-      </c>
-      <c r="K7" t="s">
-        <v>547</v>
-      </c>
-      <c r="L7">
-        <v>76</v>
-      </c>
-      <c r="M7" t="s">
-        <v>548</v>
-      </c>
-      <c r="N7" t="s">
-        <v>549</v>
-      </c>
-      <c r="V7">
-        <v>271121</v>
-      </c>
-      <c r="W7" t="s">
-        <v>553</v>
-      </c>
-      <c r="X7">
-        <v>8</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z7" s="236">
-        <v>10129551347</v>
-      </c>
-      <c r="AD7" s="236">
-        <v>10129551347</v>
-      </c>
-      <c r="AE7" s="236"/>
-      <c r="AF7" s="236">
-        <v>570586739</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <f t="shared" si="0"/>
-        <v>5.6328925087979022E-2</v>
-      </c>
-      <c r="AP7" s="236">
-        <f t="shared" si="1"/>
-        <v>401663136.36735064</v>
-      </c>
-      <c r="AR7">
-        <f t="shared" si="2"/>
-        <v>1.4205603834108298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>552</v>
-      </c>
-      <c r="B8">
-        <v>2005</v>
-      </c>
-      <c r="C8">
-        <v>2005</v>
-      </c>
-      <c r="D8">
-        <v>2005</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>545</v>
-      </c>
-      <c r="I8">
-        <v>68</v>
-      </c>
-      <c r="J8" t="s">
-        <v>546</v>
-      </c>
-      <c r="K8" t="s">
-        <v>547</v>
-      </c>
-      <c r="L8">
-        <v>76</v>
-      </c>
-      <c r="M8" t="s">
-        <v>548</v>
-      </c>
-      <c r="N8" t="s">
-        <v>549</v>
-      </c>
-      <c r="V8">
-        <v>271121</v>
-      </c>
-      <c r="W8" t="s">
-        <v>553</v>
-      </c>
-      <c r="X8">
-        <v>8</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z8" s="236">
-        <v>11495199945</v>
-      </c>
-      <c r="AD8" s="236">
-        <v>11495199945</v>
-      </c>
-      <c r="AE8" s="236"/>
-      <c r="AF8" s="236">
-        <v>822147800</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <f t="shared" si="0"/>
-        <v>7.1520965614661175E-2</v>
-      </c>
-      <c r="AP8" s="236">
-        <f t="shared" si="1"/>
-        <v>455814665.91271496</v>
-      </c>
-      <c r="AR8">
-        <f t="shared" si="2"/>
-        <v>1.8036887829261621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>552</v>
-      </c>
-      <c r="B9">
-        <v>2006</v>
-      </c>
-      <c r="C9">
-        <v>2006</v>
-      </c>
-      <c r="D9">
-        <v>2006</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>545</v>
-      </c>
-      <c r="I9">
-        <v>68</v>
-      </c>
-      <c r="J9" t="s">
-        <v>546</v>
-      </c>
-      <c r="K9" t="s">
-        <v>547</v>
-      </c>
-      <c r="L9">
-        <v>76</v>
-      </c>
-      <c r="M9" t="s">
-        <v>548</v>
-      </c>
-      <c r="N9" t="s">
-        <v>549</v>
-      </c>
-      <c r="V9">
-        <v>271121</v>
-      </c>
-      <c r="W9" t="s">
-        <v>553</v>
-      </c>
-      <c r="X9">
-        <v>8</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z9" s="236">
-        <v>12385592620</v>
-      </c>
-      <c r="AD9" s="236">
-        <v>12385592620</v>
-      </c>
-      <c r="AE9" s="236"/>
-      <c r="AF9" s="236">
-        <v>1391404541</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <f t="shared" si="0"/>
-        <v>0.11234057050715431</v>
-      </c>
-      <c r="AP9" s="236">
-        <f t="shared" si="1"/>
-        <v>491121058.28762841</v>
-      </c>
-      <c r="AR9">
-        <f t="shared" si="2"/>
-        <v>2.8331192839731876</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>554</v>
-      </c>
-      <c r="B10">
-        <v>2007</v>
-      </c>
-      <c r="C10">
-        <v>2007</v>
-      </c>
-      <c r="D10">
-        <v>2007</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>545</v>
-      </c>
-      <c r="I10">
-        <v>68</v>
-      </c>
-      <c r="J10" t="s">
-        <v>546</v>
-      </c>
-      <c r="K10" t="s">
-        <v>547</v>
-      </c>
-      <c r="L10">
-        <v>76</v>
-      </c>
-      <c r="M10" t="s">
-        <v>548</v>
-      </c>
-      <c r="N10" t="s">
-        <v>549</v>
-      </c>
-      <c r="V10">
-        <v>271121</v>
-      </c>
-      <c r="W10" t="s">
-        <v>553</v>
-      </c>
-      <c r="X10">
-        <v>8</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z10" s="236">
-        <v>13529018178</v>
-      </c>
-      <c r="AD10" s="236">
-        <v>13529018178</v>
-      </c>
-      <c r="AE10" s="236"/>
-      <c r="AF10" s="236">
-        <v>1663117302</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <f t="shared" si="0"/>
-        <v>0.12292963762177894</v>
-      </c>
-      <c r="AP10" s="236">
-        <f t="shared" si="1"/>
-        <v>536460864.57281864</v>
-      </c>
-      <c r="AR10">
-        <f t="shared" si="2"/>
-        <v>3.1001651971842024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>554</v>
-      </c>
-      <c r="B11">
-        <v>2008</v>
-      </c>
-      <c r="C11">
-        <v>2008</v>
-      </c>
-      <c r="D11">
-        <v>2008</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>545</v>
-      </c>
-      <c r="I11">
-        <v>68</v>
-      </c>
-      <c r="J11" t="s">
-        <v>546</v>
-      </c>
-      <c r="K11" t="s">
-        <v>547</v>
-      </c>
-      <c r="L11">
-        <v>76</v>
-      </c>
-      <c r="M11" t="s">
-        <v>548</v>
-      </c>
-      <c r="N11" t="s">
-        <v>549</v>
-      </c>
-      <c r="V11">
-        <v>271121</v>
-      </c>
-      <c r="W11" t="s">
-        <v>553</v>
-      </c>
-      <c r="X11">
-        <v>8</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z11" s="236">
-        <v>8513074237</v>
-      </c>
-      <c r="AD11" s="236">
-        <v>8513074237</v>
-      </c>
-      <c r="AE11" s="236"/>
-      <c r="AF11" s="236">
-        <v>2852347866</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <f t="shared" si="0"/>
-        <v>0.33505497386631095</v>
-      </c>
-      <c r="AP11" s="236">
-        <f t="shared" si="1"/>
-        <v>337565601.97251058</v>
-      </c>
-      <c r="AR11">
-        <f t="shared" si="2"/>
-        <v>8.449758652341238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>554</v>
-      </c>
-      <c r="B12">
-        <v>2009</v>
-      </c>
-      <c r="C12">
-        <v>2009</v>
-      </c>
-      <c r="D12">
-        <v>2009</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>545</v>
-      </c>
-      <c r="I12">
-        <v>68</v>
-      </c>
-      <c r="J12" t="s">
-        <v>546</v>
-      </c>
-      <c r="K12" t="s">
-        <v>547</v>
-      </c>
-      <c r="L12">
-        <v>76</v>
-      </c>
-      <c r="M12" t="s">
-        <v>548</v>
-      </c>
-      <c r="N12" t="s">
-        <v>549</v>
-      </c>
-      <c r="V12">
-        <v>271121</v>
-      </c>
-      <c r="W12" t="s">
-        <v>553</v>
-      </c>
-      <c r="X12">
-        <v>8</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z12" s="236">
-        <v>6209386091</v>
-      </c>
-      <c r="AD12" s="236">
-        <v>6209386091</v>
-      </c>
-      <c r="AE12" s="236"/>
-      <c r="AF12" s="236">
-        <v>1587464640</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="0"/>
-        <v>0.25565565045164462</v>
-      </c>
-      <c r="AP12" s="236">
-        <f t="shared" si="1"/>
-        <v>246218357.23904184</v>
-      </c>
-      <c r="AR12">
-        <f t="shared" si="2"/>
-        <v>6.4473853931971661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>554</v>
-      </c>
-      <c r="B13">
-        <v>2010</v>
-      </c>
-      <c r="C13">
-        <v>2010</v>
-      </c>
-      <c r="D13">
-        <v>2010</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>545</v>
-      </c>
-      <c r="I13">
-        <v>68</v>
-      </c>
-      <c r="J13" t="s">
-        <v>546</v>
-      </c>
-      <c r="K13" t="s">
-        <v>547</v>
-      </c>
-      <c r="L13">
-        <v>76</v>
-      </c>
-      <c r="M13" t="s">
-        <v>548</v>
-      </c>
-      <c r="N13" t="s">
-        <v>549</v>
-      </c>
-      <c r="V13">
-        <v>271121</v>
-      </c>
-      <c r="W13" t="s">
-        <v>553</v>
-      </c>
-      <c r="X13">
-        <v>8</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z13" s="236">
-        <v>7512506000</v>
-      </c>
-      <c r="AD13" s="236">
-        <v>7512506000</v>
-      </c>
-      <c r="AE13" s="236"/>
-      <c r="AF13" s="236">
-        <v>2302023638</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <f t="shared" si="0"/>
-        <v>0.30642553070839479</v>
-      </c>
-      <c r="AP13" s="236">
-        <f t="shared" si="1"/>
-        <v>297890461.14388978</v>
-      </c>
-      <c r="AR13">
-        <f t="shared" si="2"/>
-        <v>7.7277521044490758</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>554</v>
-      </c>
-      <c r="B14">
-        <v>2011</v>
-      </c>
-      <c r="C14">
-        <v>2011</v>
-      </c>
-      <c r="D14">
-        <v>2011</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>545</v>
-      </c>
-      <c r="I14">
-        <v>68</v>
-      </c>
-      <c r="J14" t="s">
-        <v>546</v>
-      </c>
-      <c r="K14" t="s">
-        <v>547</v>
-      </c>
-      <c r="L14">
-        <v>76</v>
-      </c>
-      <c r="M14" t="s">
-        <v>548</v>
-      </c>
-      <c r="N14" t="s">
-        <v>549</v>
-      </c>
-      <c r="V14">
-        <v>271121</v>
-      </c>
-      <c r="W14" t="s">
-        <v>553</v>
-      </c>
-      <c r="X14">
-        <v>8</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z14" s="236">
-        <v>7495476000</v>
-      </c>
-      <c r="AD14" s="236">
-        <v>7495476000</v>
-      </c>
-      <c r="AE14" s="236"/>
-      <c r="AF14" s="236">
-        <v>2897595242</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <f t="shared" si="0"/>
-        <v>0.38657921685027075</v>
-      </c>
-      <c r="AP14" s="236">
-        <f t="shared" si="1"/>
-        <v>297215177.21689117</v>
-      </c>
-      <c r="AR14">
-        <f t="shared" si="2"/>
-        <v>9.7491496535706705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>555</v>
-      </c>
-      <c r="B15">
-        <v>2012</v>
-      </c>
-      <c r="C15">
-        <v>2012</v>
-      </c>
-      <c r="D15">
-        <v>2012</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>545</v>
-      </c>
-      <c r="I15">
-        <v>68</v>
-      </c>
-      <c r="J15" t="s">
-        <v>546</v>
-      </c>
-      <c r="K15" t="s">
-        <v>547</v>
-      </c>
-      <c r="L15">
-        <v>76</v>
-      </c>
-      <c r="M15" t="s">
-        <v>548</v>
-      </c>
-      <c r="N15" t="s">
-        <v>549</v>
-      </c>
-      <c r="V15">
-        <v>271121</v>
-      </c>
-      <c r="W15" s="237" t="s">
-        <v>556</v>
-      </c>
-      <c r="X15">
-        <v>8</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z15" s="236">
-        <v>7704360000</v>
-      </c>
-      <c r="AD15" s="236">
-        <v>7704360000</v>
-      </c>
-      <c r="AE15" s="236"/>
-      <c r="AF15" s="236">
-        <v>3565747112</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <f t="shared" si="0"/>
-        <v>0.4628219750894299</v>
-      </c>
-      <c r="AP15" s="236">
-        <f t="shared" si="1"/>
-        <v>305497972.74285555</v>
-      </c>
-      <c r="AR15">
-        <f t="shared" si="2"/>
-        <v>11.671917427096542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>555</v>
-      </c>
-      <c r="B16">
-        <v>2013</v>
-      </c>
-      <c r="C16">
-        <v>2013</v>
-      </c>
-      <c r="D16">
-        <v>2013</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16" t="s">
-        <v>545</v>
-      </c>
-      <c r="I16">
-        <v>68</v>
-      </c>
-      <c r="J16" t="s">
-        <v>546</v>
-      </c>
-      <c r="K16" t="s">
-        <v>547</v>
-      </c>
-      <c r="L16">
-        <v>76</v>
-      </c>
-      <c r="M16" t="s">
-        <v>548</v>
-      </c>
-      <c r="N16" t="s">
-        <v>549</v>
-      </c>
-      <c r="V16">
-        <v>271121</v>
-      </c>
-      <c r="W16" s="237" t="s">
-        <v>556</v>
-      </c>
-      <c r="X16">
-        <v>8</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z16" s="236">
-        <v>8742000000</v>
-      </c>
-      <c r="AD16" s="236">
-        <v>8742000000</v>
-      </c>
-      <c r="AE16" s="236"/>
-      <c r="AF16" s="236">
-        <v>3928863915</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <f t="shared" si="0"/>
-        <v>0.4494239207275223</v>
-      </c>
-      <c r="AP16" s="236">
-        <f t="shared" si="1"/>
-        <v>346643105.68535781</v>
-      </c>
-      <c r="AR16">
-        <f t="shared" si="2"/>
-        <v>11.334031603577209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>555</v>
-      </c>
-      <c r="B17">
-        <v>2014</v>
-      </c>
-      <c r="C17">
-        <v>2014</v>
-      </c>
-      <c r="D17">
-        <v>2014</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>545</v>
-      </c>
-      <c r="I17">
-        <v>68</v>
-      </c>
-      <c r="J17" t="s">
-        <v>546</v>
-      </c>
-      <c r="K17" t="s">
-        <v>547</v>
-      </c>
-      <c r="L17">
-        <v>76</v>
-      </c>
-      <c r="M17" t="s">
-        <v>548</v>
-      </c>
-      <c r="N17" t="s">
-        <v>549</v>
-      </c>
-      <c r="V17">
-        <v>271121</v>
-      </c>
-      <c r="W17" s="237" t="s">
-        <v>556</v>
-      </c>
-      <c r="X17">
-        <v>8</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z17" s="236">
-        <v>9031501000</v>
-      </c>
-      <c r="AD17" s="236">
-        <v>9031501000</v>
-      </c>
-      <c r="AE17" s="236"/>
-      <c r="AF17" s="236">
-        <v>3775542883</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="0"/>
-        <v>0.4180415728238307</v>
-      </c>
-      <c r="AP17" s="236">
-        <f t="shared" si="1"/>
-        <v>358122575.57085502</v>
-      </c>
-      <c r="AR17">
-        <f t="shared" si="2"/>
-        <v>10.542599491198521</v>
-      </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>555</v>
-      </c>
-      <c r="B18">
-        <v>2015</v>
-      </c>
-      <c r="C18">
-        <v>2015</v>
-      </c>
-      <c r="D18">
-        <v>2015</v>
-      </c>
-      <c r="E18">
-        <v>6</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18" t="s">
-        <v>545</v>
-      </c>
-      <c r="I18">
-        <v>68</v>
-      </c>
-      <c r="J18" t="s">
-        <v>546</v>
-      </c>
-      <c r="K18" t="s">
-        <v>547</v>
-      </c>
-      <c r="L18">
-        <v>76</v>
-      </c>
-      <c r="M18" t="s">
-        <v>548</v>
-      </c>
-      <c r="N18" t="s">
-        <v>549</v>
-      </c>
-      <c r="V18">
-        <v>271121</v>
-      </c>
-      <c r="W18" s="237" t="s">
-        <v>556</v>
-      </c>
-      <c r="X18">
-        <v>8</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z18" s="236">
-        <v>8812863000</v>
-      </c>
-      <c r="AD18" s="236">
-        <v>8812863000</v>
-      </c>
-      <c r="AE18" s="236"/>
-      <c r="AF18" s="236">
-        <v>2402631954</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <f t="shared" si="0"/>
-        <v>0.27262785703125081</v>
-      </c>
-      <c r="AP18" s="236">
-        <f t="shared" si="1"/>
-        <v>349453008.49915111</v>
-      </c>
-      <c r="AR18">
-        <f t="shared" si="2"/>
-        <v>6.8754078390080204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>555</v>
-      </c>
-      <c r="B19">
-        <v>2016</v>
-      </c>
-      <c r="C19">
-        <v>2016</v>
-      </c>
-      <c r="D19">
-        <v>2016</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19" t="s">
-        <v>545</v>
-      </c>
-      <c r="I19">
-        <v>68</v>
-      </c>
-      <c r="J19" t="s">
-        <v>546</v>
-      </c>
-      <c r="K19" t="s">
-        <v>547</v>
-      </c>
-      <c r="L19">
-        <v>76</v>
-      </c>
-      <c r="M19" t="s">
-        <v>548</v>
-      </c>
-      <c r="N19" t="s">
-        <v>549</v>
-      </c>
-      <c r="V19">
-        <v>271121</v>
-      </c>
-      <c r="W19" s="237" t="s">
-        <v>556</v>
-      </c>
-      <c r="X19">
-        <v>8</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z19" s="236">
-        <v>7818616000</v>
-      </c>
-      <c r="AD19" s="236">
-        <v>7818616000</v>
-      </c>
-      <c r="AE19" s="236"/>
-      <c r="AF19" s="236">
-        <v>1302987687</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <f t="shared" si="0"/>
-        <v>0.16665196078180589</v>
-      </c>
-      <c r="AP19" s="236">
-        <f t="shared" si="1"/>
-        <v>310028521.20810217</v>
-      </c>
-      <c r="AR19">
-        <f t="shared" si="2"/>
-        <v>4.2027994131720172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>557</v>
-      </c>
-      <c r="B20">
-        <v>2017</v>
-      </c>
-      <c r="C20">
-        <v>2017</v>
-      </c>
-      <c r="D20">
-        <v>2017</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s">
-        <v>545</v>
-      </c>
-      <c r="I20">
-        <v>68</v>
-      </c>
-      <c r="J20" t="s">
-        <v>546</v>
-      </c>
-      <c r="K20" t="s">
-        <v>547</v>
-      </c>
-      <c r="L20">
-        <v>76</v>
-      </c>
-      <c r="M20" t="s">
-        <v>548</v>
-      </c>
-      <c r="N20" t="s">
-        <v>549</v>
-      </c>
-      <c r="V20">
-        <v>271121</v>
-      </c>
-      <c r="W20" s="237" t="s">
-        <v>556</v>
-      </c>
-      <c r="X20">
-        <v>8</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z20" s="236">
-        <v>6616912000</v>
-      </c>
-      <c r="AD20" s="236">
-        <v>6616912000</v>
-      </c>
-      <c r="AE20" s="236"/>
-      <c r="AF20" s="236">
-        <v>1400919157</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <f t="shared" si="0"/>
-        <v>0.21171796708192583</v>
-      </c>
-      <c r="AP20" s="236">
-        <f t="shared" si="1"/>
-        <v>262377822.66377398</v>
-      </c>
-      <c r="AR20">
-        <f t="shared" si="2"/>
-        <v>5.3393200034105712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>557</v>
-      </c>
-      <c r="B21">
-        <v>2018</v>
-      </c>
-      <c r="C21">
-        <v>2018</v>
-      </c>
-      <c r="D21">
-        <v>2018</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21" t="s">
-        <v>545</v>
-      </c>
-      <c r="I21">
-        <v>68</v>
-      </c>
-      <c r="J21" t="s">
-        <v>546</v>
-      </c>
-      <c r="K21" t="s">
-        <v>547</v>
-      </c>
-      <c r="L21">
-        <v>76</v>
-      </c>
-      <c r="M21" t="s">
-        <v>548</v>
-      </c>
-      <c r="N21" t="s">
-        <v>549</v>
-      </c>
-      <c r="V21">
-        <v>271121</v>
-      </c>
-      <c r="W21" s="237" t="s">
-        <v>556</v>
-      </c>
-      <c r="X21">
-        <v>8</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z21" s="236">
-        <v>6065291000</v>
-      </c>
-      <c r="AD21" s="236">
-        <v>6065291000</v>
-      </c>
-      <c r="AE21" s="236"/>
-      <c r="AF21" s="236">
-        <v>1619372381</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <f t="shared" si="0"/>
-        <v>0.26699005554721117</v>
-      </c>
-      <c r="AP21" s="236">
-        <f t="shared" si="1"/>
-        <v>240504610.97294089</v>
-      </c>
-      <c r="AR21">
-        <f t="shared" si="2"/>
-        <v>6.7332280011138543</v>
-      </c>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>557</v>
-      </c>
-      <c r="B22">
-        <v>2019</v>
-      </c>
-      <c r="C22">
-        <v>2019</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>545</v>
-      </c>
-      <c r="I22">
-        <v>68</v>
-      </c>
-      <c r="J22" t="s">
-        <v>546</v>
-      </c>
-      <c r="K22" t="s">
-        <v>547</v>
-      </c>
-      <c r="L22">
-        <v>76</v>
-      </c>
-      <c r="M22" t="s">
-        <v>548</v>
-      </c>
-      <c r="N22" t="s">
-        <v>549</v>
-      </c>
-      <c r="V22">
-        <v>271121</v>
-      </c>
-      <c r="W22" s="237" t="s">
-        <v>556</v>
-      </c>
-      <c r="X22">
-        <v>8</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z22" s="236">
-        <v>5151555000</v>
-      </c>
-      <c r="AD22" s="236">
-        <v>5151555000</v>
-      </c>
-      <c r="AE22" s="236"/>
-      <c r="AF22" s="236">
-        <v>1453911953</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <f t="shared" si="0"/>
-        <v>0.28222778423213962</v>
-      </c>
-      <c r="AP22" s="236">
-        <f t="shared" si="1"/>
-        <v>204272594.86489743</v>
-      </c>
-      <c r="AR22">
-        <f t="shared" si="2"/>
-        <v>7.1175086112828483</v>
-      </c>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>557</v>
-      </c>
-      <c r="B23">
-        <v>2020</v>
-      </c>
-      <c r="C23">
-        <v>2020</v>
-      </c>
-      <c r="D23">
-        <v>2020</v>
-      </c>
-      <c r="E23">
-        <v>6</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23" t="s">
-        <v>545</v>
-      </c>
-      <c r="I23">
-        <v>68</v>
-      </c>
-      <c r="J23" t="s">
-        <v>546</v>
-      </c>
-      <c r="K23" t="s">
-        <v>547</v>
-      </c>
-      <c r="L23">
-        <v>76</v>
-      </c>
-      <c r="M23" t="s">
-        <v>548</v>
-      </c>
-      <c r="N23" t="s">
-        <v>549</v>
-      </c>
-      <c r="V23">
-        <v>271121</v>
-      </c>
-      <c r="W23" s="237" t="s">
-        <v>556</v>
-      </c>
-      <c r="X23">
-        <v>8</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z23" s="236">
-        <v>5010418000</v>
-      </c>
-      <c r="AD23" s="236">
-        <v>5010418000</v>
-      </c>
-      <c r="AE23" s="236"/>
-      <c r="AF23" s="236">
-        <v>1020468790</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <f t="shared" si="0"/>
-        <v>0.2036693924538831</v>
-      </c>
-      <c r="AP23" s="236">
-        <f t="shared" si="1"/>
-        <v>198676144.623864</v>
-      </c>
-      <c r="AR23">
-        <f t="shared" si="2"/>
-        <v>5.1363428253148538</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>